--- a/oscars_stage_3.xlsx
+++ b/oscars_stage_3.xlsx
@@ -82,15 +82,18 @@
     <t>shakespeareinlove</t>
   </si>
   <si>
+    <t>danceswithwolves</t>
+  </si>
+  <si>
     <t>lawrenceofarabia</t>
   </si>
   <si>
+    <t>thebestyearsofourlives</t>
+  </si>
+  <si>
     <t>everythingeverywhereallatonce</t>
   </si>
   <si>
-    <t>thebestyearsofourlives</t>
-  </si>
-  <si>
     <t>outofafrica</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
     <t>thesting</t>
   </si>
   <si>
-    <t>danceswithwolves</t>
-  </si>
-  <si>
     <t>forrestgump</t>
   </si>
   <si>
@@ -142,12 +142,12 @@
     <t>mrsminiver</t>
   </si>
   <si>
+    <t>dune</t>
+  </si>
+  <si>
     <t>amanforallseasons</t>
   </si>
   <si>
-    <t>dune</t>
-  </si>
-  <si>
     <t>lalaland</t>
   </si>
   <si>
@@ -178,31 +178,34 @@
     <t>howgreenwasmyvalley</t>
   </si>
   <si>
+    <t>raidersofthelostark</t>
+  </si>
+  <si>
     <t>kramervskramer</t>
   </si>
   <si>
-    <t>raidersofthelostark</t>
+    <t>termsofendearment</t>
   </si>
   <si>
     <t>thebadandthebeautiful</t>
   </si>
   <si>
-    <t>termsofendearment</t>
-  </si>
-  <si>
     <t>ithappenedonenight</t>
   </si>
   <si>
+    <t>hugo</t>
+  </si>
+  <si>
+    <t>oneflewoverthecuckoosnest</t>
+  </si>
+  <si>
+    <t>thekingandi</t>
+  </si>
+  <si>
     <t>thesilenceofthelambs</t>
   </si>
   <si>
-    <t>hugo</t>
-  </si>
-  <si>
-    <t>oneflewoverthecuckoosnest</t>
-  </si>
-  <si>
-    <t>thekingandi</t>
+    <t>whosafraidofvirginiawoolf</t>
   </si>
   <si>
     <t>theaviator</t>
@@ -214,7 +217,7 @@
     <t>aroundtheworldin80days</t>
   </si>
   <si>
-    <t>whosafraidofvirginiawoolf</t>
+    <t>thedeerhunter</t>
   </si>
   <si>
     <t>oliver</t>
@@ -223,9 +226,6 @@
     <t>americanbeauty</t>
   </si>
   <si>
-    <t>thedeerhunter</t>
-  </si>
-  <si>
     <t>theartist</t>
   </si>
   <si>
@@ -235,15 +235,15 @@
     <t>ordinarypeople</t>
   </si>
   <si>
+    <t>thelostweekend</t>
+  </si>
+  <si>
     <t>rainman</t>
   </si>
   <si>
     <t>whoframedrogerrabbit</t>
   </si>
   <si>
-    <t>thelostweekend</t>
-  </si>
-  <si>
     <t>thegrandbudapesthotel</t>
   </si>
   <si>
@@ -265,6 +265,9 @@
     <t>drivingmissdaisy</t>
   </si>
   <si>
+    <t>allthepresidentsmen</t>
+  </si>
+  <si>
     <t>lifeofpi</t>
   </si>
   <si>
@@ -277,24 +280,21 @@
     <t>butchcassidyandthesundancekid</t>
   </si>
   <si>
-    <t>allthepresidentsmen</t>
-  </si>
-  <si>
     <t>sayonara</t>
   </si>
   <si>
+    <t>astreetcarnameddesire</t>
+  </si>
+  <si>
+    <t>chariotsoffire</t>
+  </si>
+  <si>
+    <t>parasite</t>
+  </si>
+  <si>
     <t>tomjones</t>
   </si>
   <si>
-    <t>chariotsoffire</t>
-  </si>
-  <si>
-    <t>parasite</t>
-  </si>
-  <si>
-    <t>astreetcarnameddesire</t>
-  </si>
-  <si>
     <t>ettheextraterrestrial</t>
   </si>
   <si>
@@ -307,72 +307,72 @@
     <t>inception</t>
   </si>
   <si>
+    <t>therightstuff</t>
+  </si>
+  <si>
+    <t>highnoon</t>
+  </si>
+  <si>
+    <t>unforgiven</t>
+  </si>
+  <si>
+    <t>bohemianrhapsody</t>
+  </si>
+  <si>
+    <t>anthonyadverse</t>
+  </si>
+  <si>
+    <t>traffic</t>
+  </si>
+  <si>
+    <t>hamlet</t>
+  </si>
+  <si>
+    <t>cleopatra</t>
+  </si>
+  <si>
+    <t>thedeparted</t>
+  </si>
+  <si>
     <t>platoon</t>
   </si>
   <si>
-    <t>highnoon</t>
-  </si>
-  <si>
-    <t>unforgiven</t>
-  </si>
-  <si>
-    <t>bohemianrhapsody</t>
-  </si>
-  <si>
-    <t>anthonyadverse</t>
-  </si>
-  <si>
-    <t>traffic</t>
-  </si>
-  <si>
-    <t>hamlet</t>
-  </si>
-  <si>
-    <t>cleopatra</t>
-  </si>
-  <si>
-    <t>thedeparted</t>
-  </si>
-  <si>
     <t>theheiress</t>
   </si>
   <si>
     <t>theinformer</t>
   </si>
   <si>
+    <t>thelordoftheringsthefellowshipofthering</t>
+  </si>
+  <si>
+    <t>thematrix</t>
+  </si>
+  <si>
+    <t>terminator2judgmentday</t>
+  </si>
+  <si>
+    <t>theshapeofwater</t>
+  </si>
+  <si>
     <t>nocountryforoldmen</t>
   </si>
   <si>
-    <t>thelordoftheringsthefellowshipofthering</t>
-  </si>
-  <si>
-    <t>thematrix</t>
-  </si>
-  <si>
-    <t>terminator2judgmentday</t>
-  </si>
-  <si>
-    <t>theshapeofwater</t>
-  </si>
-  <si>
-    <t>therightstuff</t>
+    <t>barrylyndon</t>
+  </si>
+  <si>
+    <t>spartacus</t>
+  </si>
+  <si>
+    <t>abeautifulmind</t>
+  </si>
+  <si>
+    <t>crouchingtigerhiddendragon</t>
   </si>
   <si>
     <t>fannyalexander</t>
   </si>
   <si>
-    <t>crouchingtigerhiddendragon</t>
-  </si>
-  <si>
-    <t>spartacus</t>
-  </si>
-  <si>
-    <t>abeautifulmind</t>
-  </si>
-  <si>
-    <t>barrylyndon</t>
-  </si>
-  <si>
     <t>dicktracy</t>
   </si>
   <si>
@@ -493,24 +493,24 @@
     <t>thediaryofannefrank</t>
   </si>
   <si>
+    <t>thethiefofbagdad</t>
+  </si>
+  <si>
+    <t>hud</t>
+  </si>
+  <si>
     <t>midnightcowboy</t>
   </si>
   <si>
     <t>camelot</t>
   </si>
   <si>
-    <t>hud</t>
-  </si>
-  <si>
     <t>hellodolly</t>
   </si>
   <si>
     <t>thepianist</t>
   </si>
   <si>
-    <t>thethiefofbagdad</t>
-  </si>
-  <si>
     <t>hannahandhersisters</t>
   </si>
   <si>
@@ -571,25 +571,28 @@
     <t>casablanca</t>
   </si>
   <si>
+    <t>tokillamockingbird</t>
+  </si>
+  <si>
+    <t>therevenant</t>
+  </si>
+  <si>
+    <t>thegreatziegfeld</t>
+  </si>
+  <si>
+    <t>lifeisbeautiful</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
     <t>thestoryoflouispasteur</t>
   </si>
   <si>
-    <t>tokillamockingbird</t>
-  </si>
-  <si>
-    <t>therevenant</t>
-  </si>
-  <si>
-    <t>thegreatziegfeld</t>
-  </si>
-  <si>
-    <t>1917</t>
-  </si>
-  <si>
     <t>howthewestwaswon</t>
   </si>
   <si>
-    <t>lifeisbeautiful</t>
+    <t>judgmentatnuremberg</t>
   </si>
   <si>
     <t>bonnieandclyde</t>
@@ -604,9 +607,6 @@
     <t>fargo</t>
   </si>
   <si>
-    <t>judgmentatnuremberg</t>
-  </si>
-  <si>
     <t>breakfastattiffanys</t>
   </si>
   <si>
@@ -706,6 +706,9 @@
     <t>laconfidential</t>
   </si>
   <si>
+    <t>masterandcommanderthefarsideoftheworld</t>
+  </si>
+  <si>
     <t>asgoodasitgets</t>
   </si>
   <si>
@@ -721,9 +724,6 @@
     <t>somebodyuptherelikesme</t>
   </si>
   <si>
-    <t>masterandcommanderthefarsideoftheworld</t>
-  </si>
-  <si>
     <t>mysticriver</t>
   </si>
   <si>
@@ -1165,21 +1165,21 @@
     <t>meninblack</t>
   </si>
   <si>
+    <t>thetriptobountiful</t>
+  </si>
+  <si>
+    <t>theofficialstory</t>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>prizzishonor</t>
+  </si>
+  <si>
     <t>mollyspilgrim</t>
   </si>
   <si>
-    <t>thetriptobountiful</t>
-  </si>
-  <si>
-    <t>theofficialstory</t>
-  </si>
-  <si>
-    <t>ran</t>
-  </si>
-  <si>
-    <t>prizzishonor</t>
-  </si>
-  <si>
     <t>mask</t>
   </si>
   <si>
@@ -1714,21 +1714,21 @@
     <t>blackpantherwakandaforever</t>
   </si>
   <si>
-    <t>danielroherodessaraedianebeckermelaniemillerandshaneboris</t>
-  </si>
-  <si>
     <t>guillermodeltorospinocchio</t>
   </si>
   <si>
-    <t>kartikigonsalvesandguneetmonga</t>
-  </si>
-  <si>
     <t>naatunaatu</t>
   </si>
   <si>
+    <t>navalny</t>
+  </si>
+  <si>
     <t>theboythemolethefoxandthehorse</t>
   </si>
   <si>
+    <t>theelephantwhisperers</t>
+  </si>
+  <si>
     <t>topgunmaverick</t>
   </si>
   <si>
@@ -3997,12 +3997,12 @@
     <t>theirishman</t>
   </si>
   <si>
+    <t>thebansheesofinisherin</t>
+  </si>
+  <si>
     <t>thelittlefoxes</t>
   </si>
   <si>
-    <t>thebansheesofinisherin</t>
-  </si>
-  <si>
     <t>peytonplace</t>
   </si>
   <si>
@@ -4057,36 +4057,36 @@
     <t>themartian</t>
   </si>
   <si>
+    <t>doubleindemnity</t>
+  </si>
+  <si>
+    <t>hawaii</t>
+  </si>
+  <si>
+    <t>thefabelmans</t>
+  </si>
+  <si>
+    <t>cometothestable</t>
+  </si>
+  <si>
+    <t>broadcastnews</t>
+  </si>
+  <si>
+    <t>theshawshankredemption</t>
+  </si>
+  <si>
+    <t>theprinceoftides</t>
+  </si>
+  <si>
+    <t>thecainemutiny</t>
+  </si>
+  <si>
+    <t>thegodfatherpartiii</t>
+  </si>
+  <si>
     <t>thethinredline</t>
   </si>
   <si>
-    <t>doubleindemnity</t>
-  </si>
-  <si>
-    <t>hawaii</t>
-  </si>
-  <si>
-    <t>thefabelmans</t>
-  </si>
-  <si>
-    <t>cometothestable</t>
-  </si>
-  <si>
-    <t>broadcastnews</t>
-  </si>
-  <si>
-    <t>theshawshankredemption</t>
-  </si>
-  <si>
-    <t>theprinceoftides</t>
-  </si>
-  <si>
-    <t>thecainemutiny</t>
-  </si>
-  <si>
-    <t>thegodfatherpartiii</t>
-  </si>
-  <si>
     <t>theinsider</t>
   </si>
   <si>
@@ -4180,39 +4180,39 @@
     <t>tr</t>
   </si>
   <si>
+    <t>theloveparade</t>
+  </si>
+  <si>
+    <t>thesixthsense</t>
+  </si>
+  <si>
     <t>theunsinkablemollybrown</t>
   </si>
   <si>
-    <t>theloveparade</t>
-  </si>
-  <si>
-    <t>thesixthsense</t>
+    <t>americangraffiti</t>
+  </si>
+  <si>
+    <t>theprivatelivesofelizabethandessex</t>
+  </si>
+  <si>
+    <t>fourdaughters</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>maryqueenofscots</t>
+  </si>
+  <si>
+    <t>starwarstheforceawakens</t>
   </si>
   <si>
     <t>munich</t>
   </si>
   <si>
-    <t>americangraffiti</t>
-  </si>
-  <si>
-    <t>theprivatelivesofelizabethandessex</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>maryqueenofscots</t>
-  </si>
-  <si>
-    <t>starwarstheforceawakens</t>
-  </si>
-  <si>
     <t>theverdict</t>
   </si>
   <si>
-    <t>fourdaughters</t>
-  </si>
-  <si>
     <t>funnylady</t>
   </si>
   <si>
@@ -4240,22 +4240,28 @@
     <t>somecamerunning</t>
   </si>
   <si>
+    <t>itsawonderfullife</t>
+  </si>
+  <si>
+    <t>iremembermama</t>
+  </si>
+  <si>
+    <t>fanny</t>
+  </si>
+  <si>
+    <t>gorillasinthemist</t>
+  </si>
+  <si>
+    <t>amlie</t>
+  </si>
+  <si>
     <t>blooddiamond</t>
   </si>
   <si>
-    <t>itsawonderfullife</t>
-  </si>
-  <si>
-    <t>iremembermama</t>
-  </si>
-  <si>
-    <t>fanny</t>
-  </si>
-  <si>
-    <t>gorillasinthemist</t>
-  </si>
-  <si>
-    <t>amlie</t>
+    <t>thetalentedmrripley</t>
+  </si>
+  <si>
+    <t>crossfire</t>
   </si>
   <si>
     <t>secretslies</t>
@@ -4264,93 +4270,90 @@
     <t>thedresser</t>
   </si>
   <si>
+    <t>ladybird</t>
+  </si>
+  <si>
+    <t>ladysingstheblues</t>
+  </si>
+  <si>
+    <t>frostnixon</t>
+  </si>
+  <si>
+    <t>foxcatcher</t>
+  </si>
+  <si>
+    <t>silkwood</t>
+  </si>
+  <si>
+    <t>lovewiththeproperstranger</t>
+  </si>
+  <si>
+    <t>thetrialofthechicago7</t>
+  </si>
+  <si>
+    <t>chocolat</t>
+  </si>
+  <si>
+    <t>hopeandglory</t>
+  </si>
+  <si>
     <t>davidandbathsheba</t>
   </si>
   <si>
-    <t>ladybird</t>
-  </si>
-  <si>
-    <t>ladysingstheblues</t>
-  </si>
-  <si>
-    <t>thetalentedmrripley</t>
-  </si>
-  <si>
-    <t>hopeandglory</t>
-  </si>
-  <si>
-    <t>foxcatcher</t>
-  </si>
-  <si>
-    <t>silkwood</t>
-  </si>
-  <si>
-    <t>lovewiththeproperstranger</t>
-  </si>
-  <si>
-    <t>thetrialofthechicago7</t>
-  </si>
-  <si>
-    <t>chocolat</t>
-  </si>
-  <si>
-    <t>crossfire</t>
+    <t>thegreateststoryevertold</t>
+  </si>
+  <si>
+    <t>thewolfofwallstreet</t>
+  </si>
+  <si>
+    <t>theagonyandtheecstasy</t>
+  </si>
+  <si>
+    <t>alfie</t>
+  </si>
+  <si>
+    <t>doubt</t>
+  </si>
+  <si>
+    <t>thesundowners</t>
   </si>
   <si>
     <t>deathofasalesman</t>
   </si>
   <si>
-    <t>thegreateststoryevertold</t>
-  </si>
-  <si>
-    <t>theagonyandtheecstasy</t>
+    <t>captainblood</t>
+  </si>
+  <si>
+    <t>thegreatdictator</t>
+  </si>
+  <si>
+    <t>atlanticcity</t>
   </si>
   <si>
     <t>interiors</t>
   </si>
   <si>
-    <t>thewolfofwallstreet</t>
-  </si>
-  <si>
-    <t>alfie</t>
-  </si>
-  <si>
-    <t>doubt</t>
-  </si>
-  <si>
-    <t>thegreatdictator</t>
-  </si>
-  <si>
-    <t>atlanticcity</t>
-  </si>
-  <si>
-    <t>frostnixon</t>
-  </si>
-  <si>
-    <t>thesundowners</t>
-  </si>
-  <si>
-    <t>captainblood</t>
+    <t>bobcaroltedalice</t>
+  </si>
+  <si>
+    <t>ladyforaday</t>
   </si>
   <si>
     <t>othello</t>
   </si>
   <si>
+    <t>starwarsthelastjedi</t>
+  </si>
+  <si>
     <t>nightmarealley</t>
   </si>
   <si>
-    <t>ladyforaday</t>
-  </si>
-  <si>
-    <t>bobcaroltedalice</t>
-  </si>
-  <si>
-    <t>starwarsthelastjedi</t>
-  </si>
-  <si>
     <t>rearwindow</t>
   </si>
   <si>
+    <t>notesonascandal</t>
+  </si>
+  <si>
     <t>thekillers</t>
   </si>
   <si>
@@ -4360,21 +4363,18 @@
     <t>beastsofthesouthernwild</t>
   </si>
   <si>
+    <t>sevenbeauties</t>
+  </si>
+  <si>
     <t>balloffire</t>
   </si>
   <si>
-    <t>sevenbeauties</t>
+    <t>taxidriver</t>
   </si>
   <si>
     <t>executivesuite</t>
   </si>
   <si>
-    <t>taxidriver</t>
-  </si>
-  <si>
-    <t>notesonascandal</t>
-  </si>
-  <si>
     <t>avalon</t>
   </si>
   <si>
@@ -4516,15 +4516,15 @@
     <t>inheritthewind</t>
   </si>
   <si>
+    <t>sandsofiwojima</t>
+  </si>
+  <si>
+    <t>georgygirl</t>
+  </si>
+  <si>
     <t>diehard</t>
   </si>
   <si>
-    <t>sandsofiwojima</t>
-  </si>
-  <si>
-    <t>georgygirl</t>
-  </si>
-  <si>
     <t>thekidsareallright</t>
   </si>
   <si>
@@ -4600,66 +4600,69 @@
     <t>newsoftheworld</t>
   </si>
   <si>
+    <t>suddenfear</t>
+  </si>
+  <si>
     <t>afewgoodmen</t>
   </si>
   <si>
     <t>springparade</t>
   </si>
   <si>
+    <t>mycousinrachel</t>
+  </si>
+  <si>
+    <t>theseahawk</t>
+  </si>
+  <si>
+    <t>lifewithfather</t>
+  </si>
+  <si>
+    <t>farfromheaven</t>
+  </si>
+  <si>
+    <t>psycho</t>
+  </si>
+  <si>
+    <t>incoldblood</t>
+  </si>
+  <si>
     <t>thegreenmile</t>
   </si>
   <si>
-    <t>theseahawk</t>
-  </si>
-  <si>
-    <t>lifewithfather</t>
-  </si>
-  <si>
-    <t>farfromheaven</t>
-  </si>
-  <si>
-    <t>psycho</t>
-  </si>
-  <si>
-    <t>incoldblood</t>
-  </si>
-  <si>
-    <t>mycousinrachel</t>
+    <t>kundun</t>
+  </si>
+  <si>
+    <t>themanwhowouldbeking</t>
+  </si>
+  <si>
+    <t>stagedoor</t>
+  </si>
+  <si>
+    <t>sleuth</t>
+  </si>
+  <si>
+    <t>lesmiserables</t>
+  </si>
+  <si>
+    <t>sounder</t>
+  </si>
+  <si>
+    <t>thedivingbellandthebutterfly</t>
   </si>
   <si>
     <t>nine</t>
   </si>
   <si>
-    <t>kundun</t>
-  </si>
-  <si>
-    <t>sleuth</t>
-  </si>
-  <si>
-    <t>themanwhowouldbeking</t>
-  </si>
-  <si>
-    <t>lesmiserables</t>
-  </si>
-  <si>
-    <t>sounder</t>
-  </si>
-  <si>
-    <t>thedivingbellandthebutterfly</t>
-  </si>
-  <si>
-    <t>stagedoor</t>
-  </si>
-  <si>
-    <t>suddenfear</t>
-  </si>
-  <si>
     <t>armageddon</t>
   </si>
   <si>
     <t>brokenarrow</t>
   </si>
   <si>
+    <t>ivanhoe</t>
+  </si>
+  <si>
     <t>thehobbitthedesolationofsmaug</t>
   </si>
   <si>
@@ -4672,87 +4675,84 @@
     <t>caged</t>
   </si>
   <si>
+    <t>batmanforever</t>
+  </si>
+  <si>
+    <t>fatherofthebride</t>
+  </si>
+  <si>
+    <t>thefrontpage</t>
+  </si>
+  <si>
+    <t>thelastdetail</t>
+  </si>
+  <si>
+    <t>tomsawyer</t>
+  </si>
+  <si>
+    <t>lifeboat</t>
+  </si>
+  <si>
+    <t>ladyinthedark</t>
+  </si>
+  <si>
+    <t>anunmarriedwoman</t>
+  </si>
+  <si>
+    <t>revolutionaryroad</t>
+  </si>
+  <si>
+    <t>intothewoods</t>
+  </si>
+  <si>
+    <t>hollywoodcanteen</t>
+  </si>
+  <si>
+    <t>gambit</t>
+  </si>
+  <si>
+    <t>blazingsaddles</t>
+  </si>
+  <si>
+    <t>crimsontide</t>
+  </si>
+  <si>
+    <t>triangleofsadness</t>
+  </si>
+  <si>
+    <t>thespywholovedme</t>
+  </si>
+  <si>
+    <t>cinderellaman</t>
+  </si>
+  <si>
+    <t>thetrumanshow</t>
+  </si>
+  <si>
+    <t>inthelineoffire</t>
+  </si>
+  <si>
+    <t>changeling</t>
+  </si>
+  <si>
+    <t>cliffhanger</t>
+  </si>
+  <si>
+    <t>aneducation</t>
+  </si>
+  <si>
+    <t>theadventuresofmarktwain</t>
+  </si>
+  <si>
     <t>babylon</t>
   </si>
   <si>
-    <t>ivanhoe</t>
-  </si>
-  <si>
-    <t>batmanforever</t>
-  </si>
-  <si>
-    <t>fatherofthebride</t>
-  </si>
-  <si>
-    <t>thefrontpage</t>
-  </si>
-  <si>
-    <t>thelastdetail</t>
-  </si>
-  <si>
-    <t>tomsawyer</t>
-  </si>
-  <si>
-    <t>lifeboat</t>
-  </si>
-  <si>
-    <t>ladyinthedark</t>
-  </si>
-  <si>
-    <t>anunmarriedwoman</t>
-  </si>
-  <si>
-    <t>revolutionaryroad</t>
-  </si>
-  <si>
-    <t>intothewoods</t>
-  </si>
-  <si>
-    <t>hollywoodcanteen</t>
-  </si>
-  <si>
-    <t>gambit</t>
-  </si>
-  <si>
-    <t>blazingsaddles</t>
-  </si>
-  <si>
-    <t>crimsontide</t>
-  </si>
-  <si>
-    <t>triangleofsadness</t>
-  </si>
-  <si>
-    <t>thespywholovedme</t>
-  </si>
-  <si>
-    <t>cinderellaman</t>
-  </si>
-  <si>
-    <t>thetrumanshow</t>
-  </si>
-  <si>
-    <t>inthelineoffire</t>
-  </si>
-  <si>
-    <t>changeling</t>
-  </si>
-  <si>
-    <t>cliffhanger</t>
-  </si>
-  <si>
-    <t>aneducation</t>
-  </si>
-  <si>
-    <t>theadventuresofmarktwain</t>
+    <t>alibi</t>
   </si>
   <si>
     <t>theprincessandthefrog</t>
   </si>
   <si>
-    <t>alibi</t>
-  </si>
-  <si>
     <t>enchantedapril</t>
   </si>
   <si>
@@ -4768,6 +4768,9 @@
     <t>childrenofmen</t>
   </si>
   <si>
+    <t>cinderellaliberty</t>
+  </si>
+  <si>
     <t>theresnobusinesslikeshowbusiness</t>
   </si>
   <si>
@@ -4780,93 +4783,90 @@
     <t>voyageofthedamned</t>
   </si>
   <si>
+    <t>thebatman</t>
+  </si>
+  <si>
+    <t>chaplin</t>
+  </si>
+  <si>
+    <t>themoonisblue</t>
+  </si>
+  <si>
+    <t>crimesoftheheart</t>
+  </si>
+  <si>
+    <t>deliverance</t>
+  </si>
+  <si>
+    <t>thetreeoflife</t>
+  </si>
+  <si>
+    <t>tinkertailorsoldierspy</t>
+  </si>
+  <si>
+    <t>transformersdarkofthemoon</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>cousincousine</t>
+  </si>
+  <si>
+    <t>brigadoon</t>
+  </si>
+  <si>
+    <t>littlechildren</t>
+  </si>
+  <si>
+    <t>thecollector</t>
+  </si>
+  <si>
+    <t>annachristie</t>
+  </si>
+  <si>
+    <t>harrypotterandthedeathlyhallowspart2</t>
+  </si>
+  <si>
     <t>runawaytrain</t>
   </si>
   <si>
-    <t>thebatman</t>
-  </si>
-  <si>
-    <t>chaplin</t>
-  </si>
-  <si>
-    <t>themoonisblue</t>
-  </si>
-  <si>
-    <t>crimesoftheheart</t>
-  </si>
-  <si>
-    <t>deliverance</t>
-  </si>
-  <si>
-    <t>thetreeoflife</t>
-  </si>
-  <si>
-    <t>tinkertailorsoldierspy</t>
-  </si>
-  <si>
-    <t>transformersdarkofthemoon</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>cousincousine</t>
-  </si>
-  <si>
-    <t>brigadoon</t>
-  </si>
-  <si>
-    <t>littlechildren</t>
-  </si>
-  <si>
-    <t>thecollector</t>
-  </si>
-  <si>
-    <t>annachristie</t>
-  </si>
-  <si>
-    <t>harrypotterandthedeathlyhallowspart2</t>
+    <t>jolsonsingsagain</t>
+  </si>
+  <si>
+    <t>thegospelaccordingtostmatthew</t>
   </si>
   <si>
     <t>achorusline</t>
   </si>
   <si>
-    <t>jolsonsingsagain</t>
-  </si>
-  <si>
-    <t>thegospelaccordingtostmatthew</t>
+    <t>bartonfink</t>
+  </si>
+  <si>
+    <t>objectiveburma</t>
+  </si>
+  <si>
+    <t>theplayer</t>
+  </si>
+  <si>
+    <t>pinky</t>
+  </si>
+  <si>
+    <t>backdraft</t>
+  </si>
+  <si>
+    <t>rebelwithoutacause</t>
   </si>
   <si>
     <t>insidedaisyclover</t>
   </si>
   <si>
-    <t>bartonfink</t>
-  </si>
-  <si>
-    <t>objectiveburma</t>
-  </si>
-  <si>
-    <t>theplayer</t>
-  </si>
-  <si>
-    <t>pinky</t>
-  </si>
-  <si>
-    <t>backdraft</t>
-  </si>
-  <si>
-    <t>rebelwithoutacause</t>
-  </si>
-  <si>
     <t>themanwiththegoldenarm</t>
   </si>
   <si>
     <t>transformers</t>
   </si>
   <si>
-    <t>cinderellaliberty</t>
-  </si>
-  <si>
     <t>agnesofgod</t>
   </si>
   <si>
@@ -4945,66 +4945,66 @@
     <t>thestuntman</t>
   </si>
   <si>
+    <t>thechocolatesoldier</t>
+  </si>
+  <si>
+    <t>journeytothecenteroftheearth</t>
+  </si>
+  <si>
+    <t>inamerica</t>
+  </si>
+  <si>
+    <t>houseofsandandfog</t>
+  </si>
+  <si>
+    <t>bambi</t>
+  </si>
+  <si>
+    <t>girlwithapearlearring</t>
+  </si>
+  <si>
+    <t>theyounglions</t>
+  </si>
+  <si>
+    <t>quills</t>
+  </si>
+  <si>
+    <t>beingjohnmalkovich</t>
+  </si>
+  <si>
+    <t>hiddenfigures</t>
+  </si>
+  <si>
+    <t>fieldofdreams</t>
+  </si>
+  <si>
+    <t>jackie</t>
+  </si>
+  <si>
+    <t>enemiesalovestory</t>
+  </si>
+  <si>
+    <t>pocketfulofmiracles</t>
+  </si>
+  <si>
+    <t>iamafugitivefromachaingang</t>
+  </si>
+  <si>
+    <t>crimesandmisdemeanors</t>
+  </si>
+  <si>
+    <t>themaltesefalcon</t>
+  </si>
+  <si>
+    <t>soulsatsea</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
     <t>angelswithdirtyfaces</t>
   </si>
   <si>
-    <t>thechocolatesoldier</t>
-  </si>
-  <si>
-    <t>journeytothecenteroftheearth</t>
-  </si>
-  <si>
-    <t>jackie</t>
-  </si>
-  <si>
-    <t>inamerica</t>
-  </si>
-  <si>
-    <t>houseofsandandfog</t>
-  </si>
-  <si>
-    <t>bambi</t>
-  </si>
-  <si>
-    <t>girlwithapearlearring</t>
-  </si>
-  <si>
-    <t>theyounglions</t>
-  </si>
-  <si>
-    <t>quills</t>
-  </si>
-  <si>
-    <t>beingjohnmalkovich</t>
-  </si>
-  <si>
-    <t>hiddenfigures</t>
-  </si>
-  <si>
-    <t>fieldofdreams</t>
-  </si>
-  <si>
-    <t>enemiesalovestory</t>
-  </si>
-  <si>
-    <t>pocketfulofmiracles</t>
-  </si>
-  <si>
-    <t>iamafugitivefromachaingang</t>
-  </si>
-  <si>
-    <t>crimesandmisdemeanors</t>
-  </si>
-  <si>
-    <t>themaltesefalcon</t>
-  </si>
-  <si>
-    <t>soulsatsea</t>
-  </si>
-  <si>
-    <t>career</t>
-  </si>
-  <si>
     <t>mudbound</t>
   </si>
   <si>
@@ -5098,6 +5098,9 @@
     <t>flyingtigers</t>
   </si>
   <si>
+    <t>sahara</t>
+  </si>
+  <si>
     <t>12angrymen</t>
   </si>
   <si>
@@ -5119,288 +5122,288 @@
     <t>fivegravestocairo</t>
   </si>
   <si>
+    <t>thegeneraldiedatdawn</t>
+  </si>
+  <si>
+    <t>captainnewmanmd</t>
+  </si>
+  <si>
+    <t>sicario</t>
+  </si>
+  <si>
+    <t>davidcopperfield</t>
+  </si>
+  <si>
+    <t>wildisthewind</t>
+  </si>
+  <si>
+    <t>threesmartgirls</t>
+  </si>
+  <si>
+    <t>saludosamigos</t>
+  </si>
+  <si>
+    <t>cryfreedom</t>
+  </si>
+  <si>
+    <t>casanovabrown</t>
+  </si>
+  <si>
+    <t>brazil</t>
+  </si>
+  <si>
+    <t>veradrake</t>
+  </si>
+  <si>
+    <t>tophat</t>
+  </si>
+  <si>
+    <t>wargames</t>
+  </si>
+  <si>
+    <t>thepolarexpress</t>
+  </si>
+  <si>
+    <t>thephantomoftheopera</t>
+  </si>
+  <si>
+    <t>unbroken</t>
+  </si>
+  <si>
+    <t>thepassionofthechrist</t>
+  </si>
+  <si>
+    <t>theboysfrombrazil</t>
+  </si>
+  <si>
+    <t>thebigchill</t>
+  </si>
+  <si>
+    <t>thousandscheer</t>
+  </si>
+  <si>
+    <t>theprofessionals</t>
+  </si>
+  <si>
+    <t>awakenings</t>
+  </si>
+  <si>
+    <t>youwereneverlovelier</t>
+  </si>
+  <si>
+    <t>darlinglili</t>
+  </si>
+  <si>
+    <t>boogienights</t>
+  </si>
+  <si>
+    <t>thetragedyofmacbeth</t>
+  </si>
+  <si>
+    <t>thepiedpiper</t>
+  </si>
+  <si>
+    <t>kingsrow</t>
+  </si>
+  <si>
+    <t>acertainsmile</t>
+  </si>
+  <si>
+    <t>startrekthemotionpicture</t>
+  </si>
+  <si>
+    <t>ineversangformyfather</t>
+  </si>
+  <si>
+    <t>educatingrita</t>
+  </si>
+  <si>
+    <t>thetwopopes</t>
+  </si>
+  <si>
+    <t>thelostdaughter</t>
+  </si>
+  <si>
+    <t>takealetterdarling</t>
+  </si>
+  <si>
     <t>lacageauxfolles</t>
   </si>
   <si>
-    <t>thegeneraldiedatdawn</t>
-  </si>
-  <si>
-    <t>captainnewmanmd</t>
-  </si>
-  <si>
-    <t>sicario</t>
-  </si>
-  <si>
-    <t>davidcopperfield</t>
-  </si>
-  <si>
-    <t>wildisthewind</t>
-  </si>
-  <si>
-    <t>threesmartgirls</t>
-  </si>
-  <si>
-    <t>youwereneverlovelier</t>
-  </si>
-  <si>
-    <t>sahara</t>
-  </si>
-  <si>
-    <t>saludosamigos</t>
-  </si>
-  <si>
-    <t>cryfreedom</t>
-  </si>
-  <si>
-    <t>casanovabrown</t>
-  </si>
-  <si>
-    <t>brazil</t>
-  </si>
-  <si>
-    <t>veradrake</t>
-  </si>
-  <si>
-    <t>tophat</t>
-  </si>
-  <si>
-    <t>wargames</t>
-  </si>
-  <si>
-    <t>thepolarexpress</t>
-  </si>
-  <si>
-    <t>thephantomoftheopera</t>
-  </si>
-  <si>
-    <t>unbroken</t>
-  </si>
-  <si>
-    <t>thepassionofthechrist</t>
-  </si>
-  <si>
-    <t>theboysfrombrazil</t>
-  </si>
-  <si>
-    <t>thebigchill</t>
-  </si>
-  <si>
-    <t>thousandscheer</t>
-  </si>
-  <si>
-    <t>theprofessionals</t>
-  </si>
-  <si>
-    <t>awakenings</t>
-  </si>
-  <si>
-    <t>startrekthemotionpicture</t>
-  </si>
-  <si>
-    <t>thepiedpiper</t>
-  </si>
-  <si>
-    <t>kingsrow</t>
-  </si>
-  <si>
-    <t>acertainsmile</t>
-  </si>
-  <si>
-    <t>darlinglili</t>
-  </si>
-  <si>
-    <t>thetwopopes</t>
-  </si>
-  <si>
-    <t>thetragedyofmacbeth</t>
-  </si>
-  <si>
-    <t>ineversangformyfather</t>
-  </si>
-  <si>
-    <t>educatingrita</t>
-  </si>
-  <si>
-    <t>thelostdaughter</t>
-  </si>
-  <si>
-    <t>takealetterdarling</t>
-  </si>
-  <si>
-    <t>boogienights</t>
-  </si>
-  <si>
     <t>starwarstheriseofskywalker</t>
   </si>
   <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>awayfromher</t>
+  </si>
+  <si>
+    <t>outofsight</t>
+  </si>
+  <si>
+    <t>carrie</t>
+  </si>
+  <si>
+    <t>icestationzebra</t>
+  </si>
+  <si>
+    <t>sleeplessinseattle</t>
+  </si>
+  <si>
+    <t>deviltakeus</t>
+  </si>
+  <si>
+    <t>mrsbrown</t>
+  </si>
+  <si>
     <t>aiartificialintelligence</t>
   </si>
   <si>
+    <t>asimpleplan</t>
+  </si>
+  <si>
+    <t>theblueveil</t>
+  </si>
+  <si>
+    <t>misterbuddwing</t>
+  </si>
+  <si>
     <t>showboat</t>
   </si>
   <si>
-    <t>mrsbrown</t>
-  </si>
-  <si>
-    <t>outofsight</t>
-  </si>
-  <si>
-    <t>awayfromher</t>
-  </si>
-  <si>
-    <t>icestationzebra</t>
-  </si>
-  <si>
-    <t>ali</t>
-  </si>
-  <si>
-    <t>carrie</t>
-  </si>
-  <si>
-    <t>theblueveil</t>
-  </si>
-  <si>
-    <t>deviltakeus</t>
-  </si>
-  <si>
-    <t>misterbuddwing</t>
-  </si>
-  <si>
-    <t>sleeplessinseattle</t>
-  </si>
-  <si>
-    <t>asimpleplan</t>
+    <t>twofortheseesaw</t>
+  </si>
+  <si>
+    <t>obrotherwhereartthou</t>
+  </si>
+  <si>
+    <t>clearandpresentdanger</t>
+  </si>
+  <si>
+    <t>planetoftheapes</t>
+  </si>
+  <si>
+    <t>sweetandlowdown</t>
+  </si>
+  <si>
+    <t>intothewild</t>
   </si>
   <si>
     <t>aharddaysnight</t>
   </si>
   <si>
+    <t>blowup</t>
+  </si>
+  <si>
+    <t>talesofhoffmann</t>
+  </si>
+  <si>
+    <t>fivefingers</t>
+  </si>
+  <si>
+    <t>theparenttrap</t>
+  </si>
+  <si>
     <t>thissportinglife</t>
   </si>
   <si>
-    <t>twofortheseesaw</t>
-  </si>
-  <si>
-    <t>obrotherwhereartthou</t>
-  </si>
-  <si>
-    <t>planetoftheapes</t>
-  </si>
-  <si>
-    <t>sweetandlowdown</t>
-  </si>
-  <si>
-    <t>intothewild</t>
-  </si>
-  <si>
-    <t>clearandpresentdanger</t>
-  </si>
-  <si>
-    <t>blowup</t>
-  </si>
-  <si>
-    <t>talesofhoffmann</t>
-  </si>
-  <si>
-    <t>fivefingers</t>
-  </si>
-  <si>
     <t>thespywhocameinfromthecold</t>
   </si>
   <si>
     <t>hilaryandjackie</t>
   </si>
   <si>
-    <t>theparenttrap</t>
-  </si>
-  <si>
     <t>thefrogmen</t>
   </si>
   <si>
+    <t>ironman</t>
+  </si>
+  <si>
+    <t>theendoftheaffair</t>
+  </si>
+  <si>
+    <t>bonvoyage</t>
+  </si>
+  <si>
+    <t>theassassinationofjessejamesbythecowardrobertford</t>
+  </si>
+  <si>
+    <t>thedayofthedolphin</t>
+  </si>
+  <si>
+    <t>byebyebirdie</t>
+  </si>
+  <si>
+    <t>davidandlisa</t>
+  </si>
+  <si>
+    <t>thecontender</t>
+  </si>
+  <si>
+    <t>thebigsky</t>
+  </si>
+  <si>
+    <t>anewkindoflove</t>
+  </si>
+  <si>
+    <t>whatslovegottodowithit</t>
+  </si>
+  <si>
+    <t>isparisburning</t>
+  </si>
+  <si>
+    <t>55daysatpeking</t>
+  </si>
+  <si>
+    <t>theperfectstorm</t>
+  </si>
+  <si>
+    <t>freud</t>
+  </si>
+  <si>
+    <t>conair</t>
+  </si>
+  <si>
+    <t>singinintherain</t>
+  </si>
+  <si>
+    <t>thesavages</t>
+  </si>
+  <si>
+    <t>navajo</t>
+  </si>
+  <si>
+    <t>julietofthespirits</t>
+  </si>
+  <si>
+    <t>jonathanlivingstonseagull</t>
+  </si>
+  <si>
+    <t>themanchuriancandidate</t>
+  </si>
+  <si>
     <t>youcancountonme</t>
   </si>
   <si>
-    <t>theendoftheaffair</t>
-  </si>
-  <si>
-    <t>bonvoyage</t>
-  </si>
-  <si>
-    <t>theassassinationofjessejamesbythecowardrobertford</t>
-  </si>
-  <si>
-    <t>55daysatpeking</t>
-  </si>
-  <si>
-    <t>davidandlisa</t>
-  </si>
-  <si>
-    <t>byebyebirdie</t>
-  </si>
-  <si>
-    <t>thecontender</t>
-  </si>
-  <si>
-    <t>thebigsky</t>
-  </si>
-  <si>
-    <t>whatslovegottodowithit</t>
-  </si>
-  <si>
-    <t>conair</t>
-  </si>
-  <si>
-    <t>isparisburning</t>
-  </si>
-  <si>
-    <t>theperfectstorm</t>
-  </si>
-  <si>
-    <t>anewkindoflove</t>
-  </si>
-  <si>
-    <t>freud</t>
-  </si>
-  <si>
-    <t>singinintherain</t>
-  </si>
-  <si>
-    <t>ironman</t>
-  </si>
-  <si>
-    <t>thesavages</t>
-  </si>
-  <si>
-    <t>julietofthespirits</t>
-  </si>
-  <si>
-    <t>navajo</t>
-  </si>
-  <si>
-    <t>jonathanlivingstonseagull</t>
+    <t>serpico</t>
+  </si>
+  <si>
+    <t>shadowofthevampire</t>
+  </si>
+  <si>
+    <t>lasttangoinparis</t>
   </si>
   <si>
     <t>acivilaction</t>
   </si>
   <si>
-    <t>themanchuriancandidate</t>
-  </si>
-  <si>
-    <t>serpico</t>
-  </si>
-  <si>
-    <t>shadowofthevampire</t>
-  </si>
-  <si>
-    <t>lasttangoinparis</t>
+    <t>thetamingoftheshrew</t>
   </si>
   <si>
     <t>summerwisheswinterdreams</t>
   </si>
   <si>
-    <t>thetamingoftheshrew</t>
-  </si>
-  <si>
     <t>piratesofthecaribbeanatworldsend</t>
   </si>
   <si>
@@ -5428,9 +5431,6 @@
     <t>frozenriver</t>
   </si>
   <si>
-    <t>thedayofthedolphin</t>
-  </si>
-  <si>
     <t>thedarkwave</t>
   </si>
   <si>
@@ -5464,93 +5464,93 @@
     <t>queenbee</t>
   </si>
   <si>
+    <t>summertime</t>
+  </si>
+  <si>
+    <t>12monkeys</t>
+  </si>
+  <si>
+    <t>thebattleofgettysburg</t>
+  </si>
+  <si>
+    <t>itsalwaysfairweather</t>
+  </si>
+  <si>
+    <t>tchaikovsky</t>
+  </si>
+  <si>
+    <t>annaandtheking</t>
+  </si>
+  <si>
+    <t>thesweethereafter</t>
+  </si>
+  <si>
+    <t>morituri</t>
+  </si>
+  <si>
+    <t>vertigo</t>
+  </si>
+  <si>
+    <t>transamerica</t>
+  </si>
+  <si>
+    <t>theandromedastrain</t>
+  </si>
+  <si>
+    <t>theoscar</t>
+  </si>
+  <si>
+    <t>thechorusleschoristes</t>
+  </si>
+  <si>
+    <t>ahistoryofviolence</t>
+  </si>
+  <si>
+    <t>highsociety</t>
+  </si>
+  <si>
+    <t>julie</t>
+  </si>
+  <si>
+    <t>therainmaker</t>
+  </si>
+  <si>
+    <t>richardiii</t>
+  </si>
+  <si>
+    <t>theproudandprofane</t>
+  </si>
+  <si>
+    <t>themagnificentseven</t>
+  </si>
+  <si>
+    <t>teenagerebel</t>
+  </si>
+  <si>
+    <t>theboldandthebrave</t>
+  </si>
+  <si>
+    <t>shrek2</t>
+  </si>
+  <si>
+    <t>alittleprincess</t>
+  </si>
+  <si>
+    <t>sometimesagreatnotion</t>
+  </si>
+  <si>
+    <t>northcountry</t>
+  </si>
+  <si>
+    <t>mrshendersonpresents</t>
+  </si>
+  <si>
+    <t>averylongengagement</t>
+  </si>
+  <si>
     <t>themaskofzorro</t>
   </si>
   <si>
-    <t>summertime</t>
-  </si>
-  <si>
-    <t>12monkeys</t>
-  </si>
-  <si>
-    <t>itsalwaysfairweather</t>
-  </si>
-  <si>
-    <t>theandromedastrain</t>
-  </si>
-  <si>
-    <t>annaandtheking</t>
-  </si>
-  <si>
-    <t>morituri</t>
-  </si>
-  <si>
-    <t>thesweethereafter</t>
-  </si>
-  <si>
-    <t>vertigo</t>
-  </si>
-  <si>
-    <t>transamerica</t>
-  </si>
-  <si>
-    <t>thebattleofgettysburg</t>
-  </si>
-  <si>
-    <t>tchaikovsky</t>
-  </si>
-  <si>
-    <t>theoscar</t>
-  </si>
-  <si>
-    <t>thechorusleschoristes</t>
-  </si>
-  <si>
-    <t>ahistoryofviolence</t>
-  </si>
-  <si>
-    <t>highsociety</t>
-  </si>
-  <si>
-    <t>julie</t>
-  </si>
-  <si>
-    <t>therainmaker</t>
-  </si>
-  <si>
-    <t>richardiii</t>
-  </si>
-  <si>
-    <t>theproudandprofane</t>
-  </si>
-  <si>
-    <t>themagnificentseven</t>
-  </si>
-  <si>
-    <t>teenagerebel</t>
-  </si>
-  <si>
-    <t>theboldandthebrave</t>
-  </si>
-  <si>
-    <t>shrek2</t>
-  </si>
-  <si>
-    <t>alittleprincess</t>
-  </si>
-  <si>
-    <t>sometimesagreatnotion</t>
-  </si>
-  <si>
-    <t>northcountry</t>
-  </si>
-  <si>
-    <t>mrshendersonpresents</t>
-  </si>
-  <si>
-    <t>averylongengagement</t>
-  </si>
-  <si>
     <t>closer</t>
   </si>
   <si>
@@ -5722,21 +5722,21 @@
     <t>jetcarrier</t>
   </si>
   <si>
+    <t>theflightofthephoenix</t>
+  </si>
+  <si>
+    <t>michaelcollins</t>
+  </si>
+  <si>
+    <t>easyrider</t>
+  </si>
+  <si>
+    <t>cancan</t>
+  </si>
+  <si>
     <t>spiderman</t>
   </si>
   <si>
-    <t>michaelcollins</t>
-  </si>
-  <si>
-    <t>easyrider</t>
-  </si>
-  <si>
-    <t>cancan</t>
-  </si>
-  <si>
-    <t>theflightofthephoenix</t>
-  </si>
-  <si>
     <t>carmenjones</t>
   </si>
   <si>
@@ -6100,24 +6100,24 @@
     <t>murphysromance</t>
   </si>
   <si>
+    <t>hoosiers</t>
+  </si>
+  <si>
+    <t>underthevolcano</t>
+  </si>
+  <si>
+    <t>svengali</t>
+  </si>
+  <si>
+    <t>littleshopofhorrors</t>
+  </si>
+  <si>
     <t>holiday</t>
   </si>
   <si>
-    <t>underthevolcano</t>
-  </si>
-  <si>
-    <t>svengali</t>
-  </si>
-  <si>
-    <t>littleshopofhorrors</t>
-  </si>
-  <si>
     <t>romance</t>
   </si>
   <si>
-    <t>hoosiers</t>
-  </si>
-  <si>
     <t>ladyhawke</t>
   </si>
   <si>
@@ -6775,10 +6775,13 @@
     <t>pirates</t>
   </si>
   <si>
+    <t>heartbreakridge</t>
+  </si>
+  <si>
     <t>heddwyn</t>
   </si>
   <si>
-    <t>heartbreakridge</t>
+    <t>searchingforbobbyfischer</t>
   </si>
   <si>
     <t>poeticjustice</t>
@@ -6787,9 +6790,6 @@
     <t>thebroadcasttapesofdrpeter</t>
   </si>
   <si>
-    <t>searchingforbobbyfischer</t>
-  </si>
-  <si>
     <t>exit</t>
   </si>
   <si>
@@ -8374,49 +8374,49 @@
     <t>spencer</t>
   </si>
   <si>
+    <t>mrsharrisgoestoparis</t>
+  </si>
+  <si>
+    <t>themarthamitchelleffect</t>
+  </si>
+  <si>
+    <t>theflyingsailor</t>
+  </si>
+  <si>
+    <t>strangeratthegate</t>
+  </si>
+  <si>
+    <t>pussinbootsthelastwish</t>
+  </si>
+  <si>
+    <t>nightride</t>
+  </si>
+  <si>
     <t>myyearofdicks</t>
   </si>
   <si>
-    <t>theflyingsailor</t>
-  </si>
-  <si>
-    <t>simonlerengwilmontandmonicahellstrm</t>
-  </si>
-  <si>
-    <t>shaunaksenamanmannandteddyleifer</t>
-  </si>
-  <si>
-    <t>saradosashaneborisandinafichman</t>
-  </si>
-  <si>
-    <t>pussinbootsthelastwish</t>
-  </si>
-  <si>
-    <t>nightride</t>
-  </si>
-  <si>
-    <t>mrsharrisgoestoparis</t>
+    <t>marceltheshellwithshoeson</t>
   </si>
   <si>
     <t>spidermannowayhome</t>
   </si>
   <si>
-    <t>marceltheshellwithshoeson</t>
-  </si>
-  <si>
     <t>liftmeup</t>
   </si>
   <si>
     <t>lepupille</t>
   </si>
   <si>
-    <t>laurapoitrashowardgertlerjohnlyonsnangoldinandyonigolijov</t>
-  </si>
-  <si>
-    <t>joshuaseftelandconalljones</t>
-  </si>
-  <si>
-    <t>jayrosenblatt</t>
+    <t>ivalu</t>
+  </si>
+  <si>
+    <t>icemerchants</t>
+  </si>
+  <si>
+    <t>howdoyoumeasureayear</t>
+  </si>
+  <si>
+    <t>holdmyhand</t>
   </si>
   <si>
     <t>thequietgirl</t>
@@ -8437,13 +8437,13 @@
     <t>turningred</t>
   </si>
   <si>
-    <t>ivalu</t>
-  </si>
-  <si>
-    <t>icemerchants</t>
-  </si>
-  <si>
-    <t>holdmyhand</t>
+    <t>haulout</t>
+  </si>
+  <si>
+    <t>glassonionaknivesoutmystery</t>
+  </si>
+  <si>
+    <t>fireoflove</t>
   </si>
   <si>
     <t>thedress</t>
@@ -8464,13 +8464,19 @@
     <t>writingwithfire</t>
   </si>
   <si>
-    <t>glassonionaknivesoutmystery</t>
+    <t>eo</t>
   </si>
   <si>
     <t>aftersun</t>
   </si>
   <si>
-    <t>annealvergueandbethlevison</t>
+    <t>ahousemadeofsplinters</t>
+  </si>
+  <si>
+    <t>allthatbreathes</t>
+  </si>
+  <si>
+    <t>allthebeautyandthebloodshed</t>
   </si>
   <si>
     <t>anostrichtoldmetheworldisfakeandithinkibelieveit</t>
@@ -8495,12 +8501,6 @@
   </si>
   <si>
     <t>empireoflight</t>
-  </si>
-  <si>
-    <t>eo</t>
-  </si>
-  <si>
-    <t>evgeniaarbugaevaandmaximarbugaev</t>
   </si>
   <si>
     <t>ashaunthesheepmoviefarmageddon</t>
@@ -15499,7 +15499,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>1963</v>
+        <v>1991</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -15508,15 +15508,15 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2023</v>
+        <v>1963</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -15550,7 +15550,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1986</v>
+        <v>2023</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -15559,15 +15559,15 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -15576,15 +15576,15 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>1971</v>
+        <v>1994</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -15593,15 +15593,15 @@
         <v>7</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -15610,15 +15610,15 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>2014</v>
+        <v>1978</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -15627,15 +15627,15 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>1945</v>
+        <v>2014</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -15652,7 +15652,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>1974</v>
+        <v>1945</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
@@ -15669,7 +15669,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -15678,10 +15678,10 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -15839,7 +15839,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>1967</v>
+        <v>2022</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
@@ -15848,15 +15848,15 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>2022</v>
+        <v>1967</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
@@ -15865,10 +15865,10 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -16043,7 +16043,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
@@ -16060,7 +16060,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
@@ -16077,7 +16077,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>1953</v>
+        <v>1984</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
@@ -16086,15 +16086,15 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>1984</v>
+        <v>1953</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
@@ -16103,10 +16103,10 @@
         <v>5</v>
       </c>
       <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>6</v>
-      </c>
-      <c r="E54">
-        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -16128,7 +16128,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>1992</v>
+        <v>2012</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -16137,15 +16137,15 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -16154,15 +16154,15 @@
         <v>5</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>1976</v>
+        <v>1957</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
@@ -16179,7 +16179,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>1957</v>
+        <v>1992</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -16188,15 +16188,15 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>2005</v>
+        <v>1967</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
@@ -16205,15 +16205,15 @@
         <v>5</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1966</v>
+        <v>2005</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -16222,15 +16222,15 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>1957</v>
+        <v>1966</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
@@ -16239,15 +16239,15 @@
         <v>5</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>1967</v>
+        <v>1957</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
@@ -16256,15 +16256,15 @@
         <v>5</v>
       </c>
       <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
         <v>8</v>
-      </c>
-      <c r="E63">
-        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>1969</v>
+        <v>1979</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
@@ -16273,15 +16273,15 @@
         <v>5</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>2000</v>
+        <v>1969</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
@@ -16290,15 +16290,15 @@
         <v>5</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>1979</v>
+        <v>2000</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
@@ -16307,10 +16307,10 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -16366,7 +16366,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>1989</v>
+        <v>1946</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
@@ -16375,10 +16375,10 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -16392,15 +16392,15 @@
         <v>4</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>1946</v>
+        <v>1989</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
@@ -16536,7 +16536,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>2013</v>
+        <v>1977</v>
       </c>
       <c r="B80" t="s">
         <v>83</v>
@@ -16545,15 +16545,15 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>1980</v>
+        <v>2013</v>
       </c>
       <c r="B81" t="s">
         <v>84</v>
@@ -16562,15 +16562,15 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E81">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="B82" t="s">
         <v>85</v>
@@ -16579,15 +16579,15 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>1970</v>
+        <v>1977</v>
       </c>
       <c r="B83" t="s">
         <v>86</v>
@@ -16596,15 +16596,15 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>1977</v>
+        <v>1970</v>
       </c>
       <c r="B84" t="s">
         <v>87</v>
@@ -16613,10 +16613,10 @@
         <v>4</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -16638,7 +16638,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>1964</v>
+        <v>1952</v>
       </c>
       <c r="B86" t="s">
         <v>89</v>
@@ -16647,10 +16647,10 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -16689,7 +16689,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>1952</v>
+        <v>1964</v>
       </c>
       <c r="B89" t="s">
         <v>92</v>
@@ -16698,10 +16698,10 @@
         <v>4</v>
       </c>
       <c r="D89">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E89">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -16774,7 +16774,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B94" t="s">
         <v>97</v>
@@ -16927,7 +16927,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>1950</v>
+        <v>1987</v>
       </c>
       <c r="B103" t="s">
         <v>106</v>
@@ -16944,7 +16944,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>1936</v>
+        <v>1950</v>
       </c>
       <c r="B104" t="s">
         <v>107</v>
@@ -16953,15 +16953,15 @@
         <v>4</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>2008</v>
+        <v>1936</v>
       </c>
       <c r="B105" t="s">
         <v>108</v>
@@ -16970,10 +16970,10 @@
         <v>4</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -17046,7 +17046,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>1984</v>
+        <v>2008</v>
       </c>
       <c r="B110" t="s">
         <v>113</v>
@@ -17063,7 +17063,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>1984</v>
+        <v>1976</v>
       </c>
       <c r="B111" t="s">
         <v>114</v>
@@ -17072,15 +17072,15 @@
         <v>4</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>2001</v>
+        <v>1961</v>
       </c>
       <c r="B112" t="s">
         <v>115</v>
@@ -17089,15 +17089,15 @@
         <v>4</v>
       </c>
       <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
         <v>6</v>
-      </c>
-      <c r="E112">
-        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>1961</v>
+        <v>2002</v>
       </c>
       <c r="B113" t="s">
         <v>116</v>
@@ -17106,15 +17106,15 @@
         <v>4</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B114" t="s">
         <v>117</v>
@@ -17123,15 +17123,15 @@
         <v>4</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E114">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="B115" t="s">
         <v>118</v>
@@ -17140,10 +17140,10 @@
         <v>4</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -17828,7 +17828,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>1970</v>
+        <v>1941</v>
       </c>
       <c r="B156" t="s">
         <v>159</v>
@@ -17837,15 +17837,15 @@
         <v>3</v>
       </c>
       <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
         <v>4</v>
-      </c>
-      <c r="E156">
-        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="B157" t="s">
         <v>160</v>
@@ -17854,15 +17854,15 @@
         <v>3</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>1964</v>
+        <v>1970</v>
       </c>
       <c r="B158" t="s">
         <v>161</v>
@@ -17879,7 +17879,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B159" t="s">
         <v>162</v>
@@ -17888,15 +17888,15 @@
         <v>3</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>2003</v>
+        <v>1970</v>
       </c>
       <c r="B160" t="s">
         <v>163</v>
@@ -17913,7 +17913,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>1941</v>
+        <v>2003</v>
       </c>
       <c r="B161" t="s">
         <v>164</v>
@@ -17922,10 +17922,10 @@
         <v>3</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E161">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -18270,7 +18270,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>1937</v>
+        <v>1963</v>
       </c>
       <c r="B182" t="s">
         <v>185</v>
@@ -18279,15 +18279,15 @@
         <v>3</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E182">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>1963</v>
+        <v>2016</v>
       </c>
       <c r="B183" t="s">
         <v>186</v>
@@ -18296,15 +18296,15 @@
         <v>3</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E183">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>2016</v>
+        <v>1937</v>
       </c>
       <c r="B184" t="s">
         <v>187</v>
@@ -18313,15 +18313,15 @@
         <v>3</v>
       </c>
       <c r="D184">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E184">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>1937</v>
+        <v>1999</v>
       </c>
       <c r="B185" t="s">
         <v>188</v>
@@ -18355,7 +18355,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>1964</v>
+        <v>1937</v>
       </c>
       <c r="B187" t="s">
         <v>190</v>
@@ -18364,15 +18364,15 @@
         <v>3</v>
       </c>
       <c r="D187">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>1999</v>
+        <v>1964</v>
       </c>
       <c r="B188" t="s">
         <v>191</v>
@@ -18381,15 +18381,15 @@
         <v>3</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="B189" t="s">
         <v>192</v>
@@ -18398,15 +18398,15 @@
         <v>2</v>
       </c>
       <c r="D189">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E189">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>1953</v>
+        <v>1968</v>
       </c>
       <c r="B190" t="s">
         <v>193</v>
@@ -18415,15 +18415,15 @@
         <v>2</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E190">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>2000</v>
+        <v>1953</v>
       </c>
       <c r="B191" t="s">
         <v>194</v>
@@ -18432,15 +18432,15 @@
         <v>2</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="B192" t="s">
         <v>195</v>
@@ -18449,15 +18449,15 @@
         <v>2</v>
       </c>
       <c r="D192">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>1962</v>
+        <v>1997</v>
       </c>
       <c r="B193" t="s">
         <v>196</v>
@@ -18466,10 +18466,10 @@
         <v>2</v>
       </c>
       <c r="D193">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E193">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -19035,7 +19035,7 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="B227" t="s">
         <v>230</v>
@@ -19044,15 +19044,15 @@
         <v>2</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E227">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="B228" t="s">
         <v>231</v>
@@ -19061,10 +19061,10 @@
         <v>2</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -19078,15 +19078,15 @@
         <v>2</v>
       </c>
       <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229">
         <v>4</v>
-      </c>
-      <c r="E229">
-        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>1971</v>
+        <v>2005</v>
       </c>
       <c r="B230" t="s">
         <v>233</v>
@@ -19095,15 +19095,15 @@
         <v>2</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E230">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>1957</v>
+        <v>1971</v>
       </c>
       <c r="B231" t="s">
         <v>234</v>
@@ -19112,15 +19112,15 @@
         <v>2</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E231">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>2004</v>
+        <v>1957</v>
       </c>
       <c r="B232" t="s">
         <v>235</v>
@@ -19129,10 +19129,10 @@
         <v>2</v>
       </c>
       <c r="D232">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -19259,7 +19259,7 @@
         <v>2002</v>
       </c>
       <c r="B240" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C240">
         <v>2</v>
@@ -21696,10 +21696,10 @@
         <v>1</v>
       </c>
       <c r="D383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E383">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -21730,10 +21730,10 @@
         <v>1</v>
       </c>
       <c r="D385">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E385">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -21747,10 +21747,10 @@
         <v>1</v>
       </c>
       <c r="D386">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E386">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -21764,10 +21764,10 @@
         <v>1</v>
       </c>
       <c r="D387">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E387">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -37922,7 +37922,7 @@
     </row>
     <row r="1338" spans="1:5">
       <c r="A1338">
-        <v>1942</v>
+        <v>2023</v>
       </c>
       <c r="B1338" t="s">
         <v>1327</v>
@@ -37939,7 +37939,7 @@
     </row>
     <row r="1339" spans="1:5">
       <c r="A1339">
-        <v>2023</v>
+        <v>1942</v>
       </c>
       <c r="B1339" t="s">
         <v>1328</v>
@@ -38245,10 +38245,10 @@
     </row>
     <row r="1357" spans="1:5">
       <c r="A1357">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B1357" t="s">
-        <v>310</v>
+        <v>1346</v>
       </c>
       <c r="C1357">
         <v>0</v>
@@ -38262,10 +38262,10 @@
     </row>
     <row r="1358" spans="1:5">
       <c r="A1358">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B1358" t="s">
-        <v>1346</v>
+        <v>310</v>
       </c>
       <c r="C1358">
         <v>0</v>
@@ -38279,7 +38279,7 @@
     </row>
     <row r="1359" spans="1:5">
       <c r="A1359">
-        <v>1999</v>
+        <v>1945</v>
       </c>
       <c r="B1359" t="s">
         <v>1347</v>
@@ -38296,7 +38296,7 @@
     </row>
     <row r="1360" spans="1:5">
       <c r="A1360">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B1360" t="s">
         <v>1348</v>
@@ -38313,7 +38313,7 @@
     </row>
     <row r="1361" spans="1:5">
       <c r="A1361">
-        <v>1967</v>
+        <v>2023</v>
       </c>
       <c r="B1361" t="s">
         <v>1349</v>
@@ -38330,7 +38330,7 @@
     </row>
     <row r="1362" spans="1:5">
       <c r="A1362">
-        <v>2023</v>
+        <v>1950</v>
       </c>
       <c r="B1362" t="s">
         <v>1350</v>
@@ -38347,7 +38347,7 @@
     </row>
     <row r="1363" spans="1:5">
       <c r="A1363">
-        <v>1950</v>
+        <v>1988</v>
       </c>
       <c r="B1363" t="s">
         <v>1351</v>
@@ -38364,7 +38364,7 @@
     </row>
     <row r="1364" spans="1:5">
       <c r="A1364">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="B1364" t="s">
         <v>1352</v>
@@ -38381,7 +38381,7 @@
     </row>
     <row r="1365" spans="1:5">
       <c r="A1365">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B1365" t="s">
         <v>1353</v>
@@ -38398,7 +38398,7 @@
     </row>
     <row r="1366" spans="1:5">
       <c r="A1366">
-        <v>1992</v>
+        <v>1955</v>
       </c>
       <c r="B1366" t="s">
         <v>1354</v>
@@ -38415,7 +38415,7 @@
     </row>
     <row r="1367" spans="1:5">
       <c r="A1367">
-        <v>1955</v>
+        <v>1991</v>
       </c>
       <c r="B1367" t="s">
         <v>1355</v>
@@ -38432,7 +38432,7 @@
     </row>
     <row r="1368" spans="1:5">
       <c r="A1368">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B1368" t="s">
         <v>1356</v>
@@ -39010,7 +39010,7 @@
     </row>
     <row r="1402" spans="1:5">
       <c r="A1402">
-        <v>1965</v>
+        <v>1931</v>
       </c>
       <c r="B1402" t="s">
         <v>1388</v>
@@ -39027,7 +39027,7 @@
     </row>
     <row r="1403" spans="1:5">
       <c r="A1403">
-        <v>1931</v>
+        <v>2000</v>
       </c>
       <c r="B1403" t="s">
         <v>1389</v>
@@ -39044,7 +39044,7 @@
     </row>
     <row r="1404" spans="1:5">
       <c r="A1404">
-        <v>2000</v>
+        <v>1965</v>
       </c>
       <c r="B1404" t="s">
         <v>1390</v>
@@ -39061,7 +39061,7 @@
     </row>
     <row r="1405" spans="1:5">
       <c r="A1405">
-        <v>2006</v>
+        <v>1974</v>
       </c>
       <c r="B1405" t="s">
         <v>1391</v>
@@ -39078,7 +39078,7 @@
     </row>
     <row r="1406" spans="1:5">
       <c r="A1406">
-        <v>1974</v>
+        <v>1940</v>
       </c>
       <c r="B1406" t="s">
         <v>1392</v>
@@ -39095,7 +39095,7 @@
     </row>
     <row r="1407" spans="1:5">
       <c r="A1407">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B1407" t="s">
         <v>1393</v>
@@ -39163,7 +39163,7 @@
     </row>
     <row r="1411" spans="1:5">
       <c r="A1411">
-        <v>1983</v>
+        <v>2006</v>
       </c>
       <c r="B1411" t="s">
         <v>1397</v>
@@ -39180,7 +39180,7 @@
     </row>
     <row r="1412" spans="1:5">
       <c r="A1412">
-        <v>1939</v>
+        <v>1983</v>
       </c>
       <c r="B1412" t="s">
         <v>1398</v>
@@ -39350,7 +39350,7 @@
     </row>
     <row r="1422" spans="1:5">
       <c r="A1422">
-        <v>2007</v>
+        <v>1947</v>
       </c>
       <c r="B1422" t="s">
         <v>1408</v>
@@ -39367,7 +39367,7 @@
     </row>
     <row r="1423" spans="1:5">
       <c r="A1423">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B1423" t="s">
         <v>1409</v>
@@ -39384,7 +39384,7 @@
     </row>
     <row r="1424" spans="1:5">
       <c r="A1424">
-        <v>1949</v>
+        <v>1962</v>
       </c>
       <c r="B1424" t="s">
         <v>1410</v>
@@ -39401,7 +39401,7 @@
     </row>
     <row r="1425" spans="1:5">
       <c r="A1425">
-        <v>1962</v>
+        <v>1989</v>
       </c>
       <c r="B1425" t="s">
         <v>1411</v>
@@ -39418,7 +39418,7 @@
     </row>
     <row r="1426" spans="1:5">
       <c r="A1426">
-        <v>1989</v>
+        <v>2002</v>
       </c>
       <c r="B1426" t="s">
         <v>1412</v>
@@ -39435,7 +39435,7 @@
     </row>
     <row r="1427" spans="1:5">
       <c r="A1427">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="B1427" t="s">
         <v>1413</v>
@@ -39452,7 +39452,7 @@
     </row>
     <row r="1428" spans="1:5">
       <c r="A1428">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="B1428" t="s">
         <v>1414</v>
@@ -39469,7 +39469,7 @@
     </row>
     <row r="1429" spans="1:5">
       <c r="A1429">
-        <v>1984</v>
+        <v>1948</v>
       </c>
       <c r="B1429" t="s">
         <v>1415</v>
@@ -39486,7 +39486,7 @@
     </row>
     <row r="1430" spans="1:5">
       <c r="A1430">
-        <v>1952</v>
+        <v>1997</v>
       </c>
       <c r="B1430" t="s">
         <v>1416</v>
@@ -39503,7 +39503,7 @@
     </row>
     <row r="1431" spans="1:5">
       <c r="A1431">
-        <v>2018</v>
+        <v>1984</v>
       </c>
       <c r="B1431" t="s">
         <v>1417</v>
@@ -39520,7 +39520,7 @@
     </row>
     <row r="1432" spans="1:5">
       <c r="A1432">
-        <v>1973</v>
+        <v>2018</v>
       </c>
       <c r="B1432" t="s">
         <v>1418</v>
@@ -39537,7 +39537,7 @@
     </row>
     <row r="1433" spans="1:5">
       <c r="A1433">
-        <v>2000</v>
+        <v>1973</v>
       </c>
       <c r="B1433" t="s">
         <v>1419</v>
@@ -39554,7 +39554,7 @@
     </row>
     <row r="1434" spans="1:5">
       <c r="A1434">
-        <v>1988</v>
+        <v>2009</v>
       </c>
       <c r="B1434" t="s">
         <v>1420</v>
@@ -39656,7 +39656,7 @@
     </row>
     <row r="1440" spans="1:5">
       <c r="A1440">
-        <v>1948</v>
+        <v>1988</v>
       </c>
       <c r="B1440" t="s">
         <v>1426</v>
@@ -39707,7 +39707,7 @@
     </row>
     <row r="1443" spans="1:5">
       <c r="A1443">
-        <v>1966</v>
+        <v>2014</v>
       </c>
       <c r="B1443" t="s">
         <v>1429</v>
@@ -39724,7 +39724,7 @@
     </row>
     <row r="1444" spans="1:5">
       <c r="A1444">
-        <v>1979</v>
+        <v>1966</v>
       </c>
       <c r="B1444" t="s">
         <v>1430</v>
@@ -39741,7 +39741,7 @@
     </row>
     <row r="1445" spans="1:5">
       <c r="A1445">
-        <v>2014</v>
+        <v>1967</v>
       </c>
       <c r="B1445" t="s">
         <v>1431</v>
@@ -39758,7 +39758,7 @@
     </row>
     <row r="1446" spans="1:5">
       <c r="A1446">
-        <v>1967</v>
+        <v>2009</v>
       </c>
       <c r="B1446" t="s">
         <v>1432</v>
@@ -39775,7 +39775,7 @@
     </row>
     <row r="1447" spans="1:5">
       <c r="A1447">
-        <v>2009</v>
+        <v>1961</v>
       </c>
       <c r="B1447" t="s">
         <v>1433</v>
@@ -39792,7 +39792,7 @@
     </row>
     <row r="1448" spans="1:5">
       <c r="A1448">
-        <v>1941</v>
+        <v>1952</v>
       </c>
       <c r="B1448" t="s">
         <v>1434</v>
@@ -39809,7 +39809,7 @@
     </row>
     <row r="1449" spans="1:5">
       <c r="A1449">
-        <v>1982</v>
+        <v>1936</v>
       </c>
       <c r="B1449" t="s">
         <v>1435</v>
@@ -39826,7 +39826,7 @@
     </row>
     <row r="1450" spans="1:5">
       <c r="A1450">
-        <v>2009</v>
+        <v>1941</v>
       </c>
       <c r="B1450" t="s">
         <v>1436</v>
@@ -39843,7 +39843,7 @@
     </row>
     <row r="1451" spans="1:5">
       <c r="A1451">
-        <v>1961</v>
+        <v>1982</v>
       </c>
       <c r="B1451" t="s">
         <v>1437</v>
@@ -39860,7 +39860,7 @@
     </row>
     <row r="1452" spans="1:5">
       <c r="A1452">
-        <v>1936</v>
+        <v>1979</v>
       </c>
       <c r="B1452" t="s">
         <v>1438</v>
@@ -39877,7 +39877,7 @@
     </row>
     <row r="1453" spans="1:5">
       <c r="A1453">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="B1453" t="s">
         <v>1439</v>
@@ -39894,7 +39894,7 @@
     </row>
     <row r="1454" spans="1:5">
       <c r="A1454">
-        <v>2022</v>
+        <v>1934</v>
       </c>
       <c r="B1454" t="s">
         <v>1440</v>
@@ -39911,7 +39911,7 @@
     </row>
     <row r="1455" spans="1:5">
       <c r="A1455">
-        <v>1934</v>
+        <v>1966</v>
       </c>
       <c r="B1455" t="s">
         <v>1441</v>
@@ -39928,7 +39928,7 @@
     </row>
     <row r="1456" spans="1:5">
       <c r="A1456">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="B1456" t="s">
         <v>1442</v>
@@ -39945,7 +39945,7 @@
     </row>
     <row r="1457" spans="1:5">
       <c r="A1457">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B1457" t="s">
         <v>1443</v>
@@ -39962,10 +39962,10 @@
     </row>
     <row r="1458" spans="1:5">
       <c r="A1458">
-        <v>1955</v>
+        <v>1947</v>
       </c>
       <c r="B1458" t="s">
-        <v>1444</v>
+        <v>430</v>
       </c>
       <c r="C1458">
         <v>0</v>
@@ -39979,10 +39979,10 @@
     </row>
     <row r="1459" spans="1:5">
       <c r="A1459">
-        <v>1947</v>
+        <v>1955</v>
       </c>
       <c r="B1459" t="s">
-        <v>430</v>
+        <v>1444</v>
       </c>
       <c r="C1459">
         <v>0</v>
@@ -39996,7 +39996,7 @@
     </row>
     <row r="1460" spans="1:5">
       <c r="A1460">
-        <v>1947</v>
+        <v>2007</v>
       </c>
       <c r="B1460" t="s">
         <v>1445</v>
@@ -40013,10 +40013,10 @@
     </row>
     <row r="1461" spans="1:5">
       <c r="A1461">
-        <v>1997</v>
+        <v>1947</v>
       </c>
       <c r="B1461" t="s">
-        <v>103</v>
+        <v>1446</v>
       </c>
       <c r="C1461">
         <v>0</v>
@@ -40030,10 +40030,10 @@
     </row>
     <row r="1462" spans="1:5">
       <c r="A1462">
-        <v>1960</v>
+        <v>1997</v>
       </c>
       <c r="B1462" t="s">
-        <v>1446</v>
+        <v>103</v>
       </c>
       <c r="C1462">
         <v>0</v>
@@ -40047,7 +40047,7 @@
     </row>
     <row r="1463" spans="1:5">
       <c r="A1463">
-        <v>2013</v>
+        <v>1960</v>
       </c>
       <c r="B1463" t="s">
         <v>1447</v>
@@ -40064,7 +40064,7 @@
     </row>
     <row r="1464" spans="1:5">
       <c r="A1464">
-        <v>1942</v>
+        <v>2013</v>
       </c>
       <c r="B1464" t="s">
         <v>1448</v>
@@ -40098,7 +40098,7 @@
     </row>
     <row r="1466" spans="1:5">
       <c r="A1466">
-        <v>1955</v>
+        <v>1942</v>
       </c>
       <c r="B1466" t="s">
         <v>1450</v>
@@ -40132,7 +40132,7 @@
     </row>
     <row r="1468" spans="1:5">
       <c r="A1468">
-        <v>2007</v>
+        <v>1955</v>
       </c>
       <c r="B1468" t="s">
         <v>1452</v>
@@ -40948,7 +40948,7 @@
     </row>
     <row r="1516" spans="1:5">
       <c r="A1516">
-        <v>1989</v>
+        <v>1950</v>
       </c>
       <c r="B1516" t="s">
         <v>1500</v>
@@ -40965,7 +40965,7 @@
     </row>
     <row r="1517" spans="1:5">
       <c r="A1517">
-        <v>1950</v>
+        <v>1967</v>
       </c>
       <c r="B1517" t="s">
         <v>1501</v>
@@ -40982,7 +40982,7 @@
     </row>
     <row r="1518" spans="1:5">
       <c r="A1518">
-        <v>1967</v>
+        <v>1989</v>
       </c>
       <c r="B1518" t="s">
         <v>1502</v>
@@ -41441,7 +41441,7 @@
     </row>
     <row r="1545" spans="1:5">
       <c r="A1545">
-        <v>1993</v>
+        <v>1953</v>
       </c>
       <c r="B1545" t="s">
         <v>1528</v>
@@ -41458,7 +41458,7 @@
     </row>
     <row r="1546" spans="1:5">
       <c r="A1546">
-        <v>1941</v>
+        <v>1993</v>
       </c>
       <c r="B1546" t="s">
         <v>1529</v>
@@ -41475,7 +41475,7 @@
     </row>
     <row r="1547" spans="1:5">
       <c r="A1547">
-        <v>2000</v>
+        <v>1941</v>
       </c>
       <c r="B1547" t="s">
         <v>1530</v>
@@ -41492,7 +41492,7 @@
     </row>
     <row r="1548" spans="1:5">
       <c r="A1548">
-        <v>1941</v>
+        <v>1953</v>
       </c>
       <c r="B1548" t="s">
         <v>1531</v>
@@ -41509,7 +41509,7 @@
     </row>
     <row r="1549" spans="1:5">
       <c r="A1549">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="B1549" t="s">
         <v>1532</v>
@@ -41526,7 +41526,7 @@
     </row>
     <row r="1550" spans="1:5">
       <c r="A1550">
-        <v>2003</v>
+        <v>1948</v>
       </c>
       <c r="B1550" t="s">
         <v>1533</v>
@@ -41543,7 +41543,7 @@
     </row>
     <row r="1551" spans="1:5">
       <c r="A1551">
-        <v>1961</v>
+        <v>2003</v>
       </c>
       <c r="B1551" t="s">
         <v>1534</v>
@@ -41560,7 +41560,7 @@
     </row>
     <row r="1552" spans="1:5">
       <c r="A1552">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="B1552" t="s">
         <v>1535</v>
@@ -41577,7 +41577,7 @@
     </row>
     <row r="1553" spans="1:5">
       <c r="A1553">
-        <v>1953</v>
+        <v>1968</v>
       </c>
       <c r="B1553" t="s">
         <v>1536</v>
@@ -41594,7 +41594,7 @@
     </row>
     <row r="1554" spans="1:5">
       <c r="A1554">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B1554" t="s">
         <v>1537</v>
@@ -41628,7 +41628,7 @@
     </row>
     <row r="1556" spans="1:5">
       <c r="A1556">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="B1556" t="s">
         <v>1539</v>
@@ -41645,7 +41645,7 @@
     </row>
     <row r="1557" spans="1:5">
       <c r="A1557">
-        <v>1976</v>
+        <v>1938</v>
       </c>
       <c r="B1557" t="s">
         <v>1540</v>
@@ -41662,7 +41662,7 @@
     </row>
     <row r="1558" spans="1:5">
       <c r="A1558">
-        <v>1936</v>
+        <v>1973</v>
       </c>
       <c r="B1558" t="s">
         <v>1541</v>
@@ -41679,7 +41679,7 @@
     </row>
     <row r="1559" spans="1:5">
       <c r="A1559">
-        <v>1973</v>
+        <v>1936</v>
       </c>
       <c r="B1559" t="s">
         <v>1542</v>
@@ -41696,7 +41696,7 @@
     </row>
     <row r="1560" spans="1:5">
       <c r="A1560">
-        <v>2008</v>
+        <v>1973</v>
       </c>
       <c r="B1560" t="s">
         <v>1543</v>
@@ -41713,10 +41713,10 @@
     </row>
     <row r="1561" spans="1:5">
       <c r="A1561">
-        <v>1937</v>
+        <v>2008</v>
       </c>
       <c r="B1561" t="s">
-        <v>243</v>
+        <v>1544</v>
       </c>
       <c r="C1561">
         <v>0</v>
@@ -41730,10 +41730,10 @@
     </row>
     <row r="1562" spans="1:5">
       <c r="A1562">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B1562" t="s">
-        <v>1544</v>
+        <v>243</v>
       </c>
       <c r="C1562">
         <v>0</v>
@@ -41747,7 +41747,7 @@
     </row>
     <row r="1563" spans="1:5">
       <c r="A1563">
-        <v>1953</v>
+        <v>2010</v>
       </c>
       <c r="B1563" t="s">
         <v>1545</v>
@@ -41798,7 +41798,7 @@
     </row>
     <row r="1566" spans="1:5">
       <c r="A1566">
-        <v>2014</v>
+        <v>1953</v>
       </c>
       <c r="B1566" t="s">
         <v>1548</v>
@@ -41815,7 +41815,7 @@
     </row>
     <row r="1567" spans="1:5">
       <c r="A1567">
-        <v>1951</v>
+        <v>2014</v>
       </c>
       <c r="B1567" t="s">
         <v>1549</v>
@@ -41832,7 +41832,7 @@
     </row>
     <row r="1568" spans="1:5">
       <c r="A1568">
-        <v>1975</v>
+        <v>1951</v>
       </c>
       <c r="B1568" t="s">
         <v>1550</v>
@@ -41849,7 +41849,7 @@
     </row>
     <row r="1569" spans="1:5">
       <c r="A1569">
-        <v>1951</v>
+        <v>1975</v>
       </c>
       <c r="B1569" t="s">
         <v>1551</v>
@@ -41866,7 +41866,7 @@
     </row>
     <row r="1570" spans="1:5">
       <c r="A1570">
-        <v>2023</v>
+        <v>1951</v>
       </c>
       <c r="B1570" t="s">
         <v>1552</v>
@@ -41883,7 +41883,7 @@
     </row>
     <row r="1571" spans="1:5">
       <c r="A1571">
-        <v>1953</v>
+        <v>1996</v>
       </c>
       <c r="B1571" t="s">
         <v>1553</v>
@@ -41900,7 +41900,7 @@
     </row>
     <row r="1572" spans="1:5">
       <c r="A1572">
-        <v>1996</v>
+        <v>1951</v>
       </c>
       <c r="B1572" t="s">
         <v>1554</v>
@@ -41917,7 +41917,7 @@
     </row>
     <row r="1573" spans="1:5">
       <c r="A1573">
-        <v>1951</v>
+        <v>1932</v>
       </c>
       <c r="B1573" t="s">
         <v>1555</v>
@@ -41934,7 +41934,7 @@
     </row>
     <row r="1574" spans="1:5">
       <c r="A1574">
-        <v>1932</v>
+        <v>1974</v>
       </c>
       <c r="B1574" t="s">
         <v>1556</v>
@@ -41968,7 +41968,7 @@
     </row>
     <row r="1576" spans="1:5">
       <c r="A1576">
-        <v>1974</v>
+        <v>1945</v>
       </c>
       <c r="B1576" t="s">
         <v>1558</v>
@@ -42002,7 +42002,7 @@
     </row>
     <row r="1578" spans="1:5">
       <c r="A1578">
-        <v>1945</v>
+        <v>1979</v>
       </c>
       <c r="B1578" t="s">
         <v>1560</v>
@@ -42019,7 +42019,7 @@
     </row>
     <row r="1579" spans="1:5">
       <c r="A1579">
-        <v>1979</v>
+        <v>2009</v>
       </c>
       <c r="B1579" t="s">
         <v>1561</v>
@@ -42036,7 +42036,7 @@
     </row>
     <row r="1580" spans="1:5">
       <c r="A1580">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="B1580" t="s">
         <v>1562</v>
@@ -42053,7 +42053,7 @@
     </row>
     <row r="1581" spans="1:5">
       <c r="A1581">
-        <v>2015</v>
+        <v>1945</v>
       </c>
       <c r="B1581" t="s">
         <v>1563</v>
@@ -42070,7 +42070,7 @@
     </row>
     <row r="1582" spans="1:5">
       <c r="A1582">
-        <v>1945</v>
+        <v>1967</v>
       </c>
       <c r="B1582" t="s">
         <v>1564</v>
@@ -42087,7 +42087,7 @@
     </row>
     <row r="1583" spans="1:5">
       <c r="A1583">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="B1583" t="s">
         <v>1565</v>
@@ -42104,7 +42104,7 @@
     </row>
     <row r="1584" spans="1:5">
       <c r="A1584">
-        <v>1975</v>
+        <v>1996</v>
       </c>
       <c r="B1584" t="s">
         <v>1566</v>
@@ -42121,7 +42121,7 @@
     </row>
     <row r="1585" spans="1:5">
       <c r="A1585">
-        <v>1996</v>
+        <v>2023</v>
       </c>
       <c r="B1585" t="s">
         <v>1567</v>
@@ -42138,7 +42138,7 @@
     </row>
     <row r="1586" spans="1:5">
       <c r="A1586">
-        <v>2023</v>
+        <v>1978</v>
       </c>
       <c r="B1586" t="s">
         <v>1568</v>
@@ -42155,7 +42155,7 @@
     </row>
     <row r="1587" spans="1:5">
       <c r="A1587">
-        <v>1978</v>
+        <v>2006</v>
       </c>
       <c r="B1587" t="s">
         <v>1569</v>
@@ -42172,7 +42172,7 @@
     </row>
     <row r="1588" spans="1:5">
       <c r="A1588">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="B1588" t="s">
         <v>1570</v>
@@ -42189,7 +42189,7 @@
     </row>
     <row r="1589" spans="1:5">
       <c r="A1589">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="B1589" t="s">
         <v>1571</v>
@@ -42206,7 +42206,7 @@
     </row>
     <row r="1590" spans="1:5">
       <c r="A1590">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="B1590" t="s">
         <v>1572</v>
@@ -42223,7 +42223,7 @@
     </row>
     <row r="1591" spans="1:5">
       <c r="A1591">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="B1591" t="s">
         <v>1573</v>
@@ -42240,10 +42240,10 @@
     </row>
     <row r="1592" spans="1:5">
       <c r="A1592">
-        <v>1994</v>
+        <v>1975</v>
       </c>
       <c r="B1592" t="s">
-        <v>1574</v>
+        <v>1093</v>
       </c>
       <c r="C1592">
         <v>0</v>
@@ -42257,10 +42257,10 @@
     </row>
     <row r="1593" spans="1:5">
       <c r="A1593">
-        <v>1975</v>
+        <v>2010</v>
       </c>
       <c r="B1593" t="s">
-        <v>1093</v>
+        <v>1574</v>
       </c>
       <c r="C1593">
         <v>0</v>
@@ -42274,7 +42274,7 @@
     </row>
     <row r="1594" spans="1:5">
       <c r="A1594">
-        <v>2010</v>
+        <v>1945</v>
       </c>
       <c r="B1594" t="s">
         <v>1575</v>
@@ -42291,7 +42291,7 @@
     </row>
     <row r="1595" spans="1:5">
       <c r="A1595">
-        <v>1945</v>
+        <v>2023</v>
       </c>
       <c r="B1595" t="s">
         <v>1576</v>
@@ -42308,7 +42308,7 @@
     </row>
     <row r="1596" spans="1:5">
       <c r="A1596">
-        <v>2010</v>
+        <v>1930</v>
       </c>
       <c r="B1596" t="s">
         <v>1577</v>
@@ -42325,7 +42325,7 @@
     </row>
     <row r="1597" spans="1:5">
       <c r="A1597">
-        <v>1930</v>
+        <v>2010</v>
       </c>
       <c r="B1597" t="s">
         <v>1578</v>
@@ -42427,7 +42427,7 @@
     </row>
     <row r="1603" spans="1:5">
       <c r="A1603">
-        <v>1955</v>
+        <v>1974</v>
       </c>
       <c r="B1603" t="s">
         <v>1584</v>
@@ -42444,7 +42444,7 @@
     </row>
     <row r="1604" spans="1:5">
       <c r="A1604">
-        <v>1947</v>
+        <v>1955</v>
       </c>
       <c r="B1604" t="s">
         <v>1585</v>
@@ -42461,7 +42461,7 @@
     </row>
     <row r="1605" spans="1:5">
       <c r="A1605">
-        <v>2007</v>
+        <v>1947</v>
       </c>
       <c r="B1605" t="s">
         <v>1586</v>
@@ -42478,7 +42478,7 @@
     </row>
     <row r="1606" spans="1:5">
       <c r="A1606">
-        <v>1977</v>
+        <v>2007</v>
       </c>
       <c r="B1606" t="s">
         <v>1587</v>
@@ -42495,7 +42495,7 @@
     </row>
     <row r="1607" spans="1:5">
       <c r="A1607">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="B1607" t="s">
         <v>1588</v>
@@ -42835,7 +42835,7 @@
     </row>
     <row r="1627" spans="1:5">
       <c r="A1627">
-        <v>1966</v>
+        <v>1986</v>
       </c>
       <c r="B1627" t="s">
         <v>1607</v>
@@ -42954,7 +42954,7 @@
     </row>
     <row r="1634" spans="1:5">
       <c r="A1634">
-        <v>1956</v>
+        <v>1966</v>
       </c>
       <c r="B1634" t="s">
         <v>1614</v>
@@ -42971,7 +42971,7 @@
     </row>
     <row r="1635" spans="1:5">
       <c r="A1635">
-        <v>2008</v>
+        <v>1956</v>
       </c>
       <c r="B1635" t="s">
         <v>1615</v>
@@ -42988,7 +42988,7 @@
     </row>
     <row r="1636" spans="1:5">
       <c r="A1636">
-        <v>1974</v>
+        <v>2008</v>
       </c>
       <c r="B1636" t="s">
         <v>1616</v>
@@ -43464,7 +43464,7 @@
     </row>
     <row r="1664" spans="1:5">
       <c r="A1664">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="B1664" t="s">
         <v>1643</v>
@@ -43481,7 +43481,7 @@
     </row>
     <row r="1665" spans="1:5">
       <c r="A1665">
-        <v>1942</v>
+        <v>1960</v>
       </c>
       <c r="B1665" t="s">
         <v>1644</v>
@@ -43498,7 +43498,7 @@
     </row>
     <row r="1666" spans="1:5">
       <c r="A1666">
-        <v>1960</v>
+        <v>2004</v>
       </c>
       <c r="B1666" t="s">
         <v>1645</v>
@@ -43515,7 +43515,7 @@
     </row>
     <row r="1667" spans="1:5">
       <c r="A1667">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="B1667" t="s">
         <v>1646</v>
@@ -43532,7 +43532,7 @@
     </row>
     <row r="1668" spans="1:5">
       <c r="A1668">
-        <v>2004</v>
+        <v>1943</v>
       </c>
       <c r="B1668" t="s">
         <v>1647</v>
@@ -43566,7 +43566,7 @@
     </row>
     <row r="1670" spans="1:5">
       <c r="A1670">
-        <v>1943</v>
+        <v>1959</v>
       </c>
       <c r="B1670" t="s">
         <v>1649</v>
@@ -43583,7 +43583,7 @@
     </row>
     <row r="1671" spans="1:5">
       <c r="A1671">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B1671" t="s">
         <v>1650</v>
@@ -43600,7 +43600,7 @@
     </row>
     <row r="1672" spans="1:5">
       <c r="A1672">
-        <v>1959</v>
+        <v>2000</v>
       </c>
       <c r="B1672" t="s">
         <v>1651</v>
@@ -43617,7 +43617,7 @@
     </row>
     <row r="1673" spans="1:5">
       <c r="A1673">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="B1673" t="s">
         <v>1652</v>
@@ -43634,7 +43634,7 @@
     </row>
     <row r="1674" spans="1:5">
       <c r="A1674">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B1674" t="s">
         <v>1653</v>
@@ -43685,7 +43685,7 @@
     </row>
     <row r="1677" spans="1:5">
       <c r="A1677">
-        <v>1990</v>
+        <v>1962</v>
       </c>
       <c r="B1677" t="s">
         <v>1656</v>
@@ -43702,7 +43702,7 @@
     </row>
     <row r="1678" spans="1:5">
       <c r="A1678">
-        <v>1962</v>
+        <v>1934</v>
       </c>
       <c r="B1678" t="s">
         <v>1657</v>
@@ -43719,7 +43719,7 @@
     </row>
     <row r="1679" spans="1:5">
       <c r="A1679">
-        <v>1934</v>
+        <v>1990</v>
       </c>
       <c r="B1679" t="s">
         <v>1658</v>
@@ -43736,7 +43736,7 @@
     </row>
     <row r="1680" spans="1:5">
       <c r="A1680">
-        <v>1990</v>
+        <v>1942</v>
       </c>
       <c r="B1680" t="s">
         <v>1659</v>
@@ -43753,7 +43753,7 @@
     </row>
     <row r="1681" spans="1:5">
       <c r="A1681">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="B1681" t="s">
         <v>1660</v>
@@ -43770,7 +43770,7 @@
     </row>
     <row r="1682" spans="1:5">
       <c r="A1682">
-        <v>1938</v>
+        <v>1960</v>
       </c>
       <c r="B1682" t="s">
         <v>1661</v>
@@ -43787,7 +43787,7 @@
     </row>
     <row r="1683" spans="1:5">
       <c r="A1683">
-        <v>1960</v>
+        <v>1939</v>
       </c>
       <c r="B1683" t="s">
         <v>1662</v>
@@ -44331,7 +44331,7 @@
     </row>
     <row r="1715" spans="1:5">
       <c r="A1715">
-        <v>1958</v>
+        <v>1944</v>
       </c>
       <c r="B1715" t="s">
         <v>1694</v>
@@ -44348,7 +44348,7 @@
     </row>
     <row r="1716" spans="1:5">
       <c r="A1716">
-        <v>1987</v>
+        <v>1958</v>
       </c>
       <c r="B1716" t="s">
         <v>1695</v>
@@ -44365,7 +44365,7 @@
     </row>
     <row r="1717" spans="1:5">
       <c r="A1717">
-        <v>2016</v>
+        <v>1987</v>
       </c>
       <c r="B1717" t="s">
         <v>1696</v>
@@ -44382,10 +44382,10 @@
     </row>
     <row r="1718" spans="1:5">
       <c r="A1718">
-        <v>1933</v>
+        <v>2016</v>
       </c>
       <c r="B1718" t="s">
-        <v>1639</v>
+        <v>1697</v>
       </c>
       <c r="C1718">
         <v>0</v>
@@ -44399,10 +44399,10 @@
     </row>
     <row r="1719" spans="1:5">
       <c r="A1719">
-        <v>2001</v>
+        <v>1933</v>
       </c>
       <c r="B1719" t="s">
-        <v>1697</v>
+        <v>1639</v>
       </c>
       <c r="C1719">
         <v>0</v>
@@ -44416,7 +44416,7 @@
     </row>
     <row r="1720" spans="1:5">
       <c r="A1720">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B1720" t="s">
         <v>1698</v>
@@ -44433,10 +44433,10 @@
     </row>
     <row r="1721" spans="1:5">
       <c r="A1721">
-        <v>1944</v>
+        <v>2005</v>
       </c>
       <c r="B1721" t="s">
-        <v>1144</v>
+        <v>1699</v>
       </c>
       <c r="C1721">
         <v>0</v>
@@ -44450,10 +44450,10 @@
     </row>
     <row r="1722" spans="1:5">
       <c r="A1722">
-        <v>1980</v>
+        <v>1944</v>
       </c>
       <c r="B1722" t="s">
-        <v>1699</v>
+        <v>1144</v>
       </c>
       <c r="C1722">
         <v>0</v>
@@ -44467,7 +44467,7 @@
     </row>
     <row r="1723" spans="1:5">
       <c r="A1723">
-        <v>1944</v>
+        <v>1980</v>
       </c>
       <c r="B1723" t="s">
         <v>1700</v>
@@ -44484,7 +44484,7 @@
     </row>
     <row r="1724" spans="1:5">
       <c r="A1724">
-        <v>1980</v>
+        <v>1944</v>
       </c>
       <c r="B1724" t="s">
         <v>1701</v>
@@ -44603,7 +44603,7 @@
     </row>
     <row r="1731" spans="1:5">
       <c r="A1731">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B1731" t="s">
         <v>1708</v>
@@ -44620,7 +44620,7 @@
     </row>
     <row r="1732" spans="1:5">
       <c r="A1732">
-        <v>1944</v>
+        <v>1988</v>
       </c>
       <c r="B1732" t="s">
         <v>1709</v>
@@ -44637,7 +44637,7 @@
     </row>
     <row r="1733" spans="1:5">
       <c r="A1733">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B1733" t="s">
         <v>1710</v>
@@ -44654,7 +44654,7 @@
     </row>
     <row r="1734" spans="1:5">
       <c r="A1734">
-        <v>1988</v>
+        <v>1945</v>
       </c>
       <c r="B1734" t="s">
         <v>1711</v>
@@ -44671,7 +44671,7 @@
     </row>
     <row r="1735" spans="1:5">
       <c r="A1735">
-        <v>1945</v>
+        <v>2005</v>
       </c>
       <c r="B1735" t="s">
         <v>1712</v>
@@ -44688,7 +44688,7 @@
     </row>
     <row r="1736" spans="1:5">
       <c r="A1736">
-        <v>1945</v>
+        <v>1936</v>
       </c>
       <c r="B1736" t="s">
         <v>1713</v>
@@ -44705,7 +44705,7 @@
     </row>
     <row r="1737" spans="1:5">
       <c r="A1737">
-        <v>2005</v>
+        <v>1984</v>
       </c>
       <c r="B1737" t="s">
         <v>1714</v>
@@ -44722,7 +44722,7 @@
     </row>
     <row r="1738" spans="1:5">
       <c r="A1738">
-        <v>1936</v>
+        <v>2005</v>
       </c>
       <c r="B1738" t="s">
         <v>1715</v>
@@ -44739,10 +44739,10 @@
     </row>
     <row r="1739" spans="1:5">
       <c r="A1739">
-        <v>1984</v>
+        <v>1957</v>
       </c>
       <c r="B1739" t="s">
-        <v>1716</v>
+        <v>1285</v>
       </c>
       <c r="C1739">
         <v>0</v>
@@ -44759,7 +44759,7 @@
         <v>2005</v>
       </c>
       <c r="B1740" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C1740">
         <v>0</v>
@@ -44773,10 +44773,10 @@
     </row>
     <row r="1741" spans="1:5">
       <c r="A1741">
-        <v>1957</v>
+        <v>2015</v>
       </c>
       <c r="B1741" t="s">
-        <v>1285</v>
+        <v>1717</v>
       </c>
       <c r="C1741">
         <v>0</v>
@@ -44807,7 +44807,7 @@
     </row>
     <row r="1743" spans="1:5">
       <c r="A1743">
-        <v>2015</v>
+        <v>1979</v>
       </c>
       <c r="B1743" t="s">
         <v>1719</v>
@@ -44824,7 +44824,7 @@
     </row>
     <row r="1744" spans="1:5">
       <c r="A1744">
-        <v>2005</v>
+        <v>1984</v>
       </c>
       <c r="B1744" t="s">
         <v>1720</v>
@@ -44841,7 +44841,7 @@
     </row>
     <row r="1745" spans="1:5">
       <c r="A1745">
-        <v>1979</v>
+        <v>1944</v>
       </c>
       <c r="B1745" t="s">
         <v>1721</v>
@@ -44858,7 +44858,7 @@
     </row>
     <row r="1746" spans="1:5">
       <c r="A1746">
-        <v>1984</v>
+        <v>1967</v>
       </c>
       <c r="B1746" t="s">
         <v>1722</v>
@@ -44875,7 +44875,7 @@
     </row>
     <row r="1747" spans="1:5">
       <c r="A1747">
-        <v>1944</v>
+        <v>1991</v>
       </c>
       <c r="B1747" t="s">
         <v>1723</v>
@@ -44892,7 +44892,7 @@
     </row>
     <row r="1748" spans="1:5">
       <c r="A1748">
-        <v>1967</v>
+        <v>1943</v>
       </c>
       <c r="B1748" t="s">
         <v>1724</v>
@@ -44909,7 +44909,7 @@
     </row>
     <row r="1749" spans="1:5">
       <c r="A1749">
-        <v>1991</v>
+        <v>1971</v>
       </c>
       <c r="B1749" t="s">
         <v>1725</v>
@@ -44926,7 +44926,7 @@
     </row>
     <row r="1750" spans="1:5">
       <c r="A1750">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="B1750" t="s">
         <v>1726</v>
@@ -44943,7 +44943,7 @@
     </row>
     <row r="1751" spans="1:5">
       <c r="A1751">
-        <v>1943</v>
+        <v>2022</v>
       </c>
       <c r="B1751" t="s">
         <v>1727</v>
@@ -44977,7 +44977,7 @@
     </row>
     <row r="1753" spans="1:5">
       <c r="A1753">
-        <v>1959</v>
+        <v>1943</v>
       </c>
       <c r="B1753" t="s">
         <v>1729</v>
@@ -44994,7 +44994,7 @@
     </row>
     <row r="1754" spans="1:5">
       <c r="A1754">
-        <v>1971</v>
+        <v>1959</v>
       </c>
       <c r="B1754" t="s">
         <v>1730</v>
@@ -45011,7 +45011,7 @@
     </row>
     <row r="1755" spans="1:5">
       <c r="A1755">
-        <v>2020</v>
+        <v>1980</v>
       </c>
       <c r="B1755" t="s">
         <v>1731</v>
@@ -45028,7 +45028,7 @@
     </row>
     <row r="1756" spans="1:5">
       <c r="A1756">
-        <v>2022</v>
+        <v>1971</v>
       </c>
       <c r="B1756" t="s">
         <v>1732</v>
@@ -45045,7 +45045,7 @@
     </row>
     <row r="1757" spans="1:5">
       <c r="A1757">
-        <v>1971</v>
+        <v>1984</v>
       </c>
       <c r="B1757" t="s">
         <v>1733</v>
@@ -45062,7 +45062,7 @@
     </row>
     <row r="1758" spans="1:5">
       <c r="A1758">
-        <v>1984</v>
+        <v>2020</v>
       </c>
       <c r="B1758" t="s">
         <v>1734</v>
@@ -45113,7 +45113,7 @@
     </row>
     <row r="1761" spans="1:5">
       <c r="A1761">
-        <v>1998</v>
+        <v>1980</v>
       </c>
       <c r="B1761" t="s">
         <v>1737</v>
@@ -45164,7 +45164,7 @@
     </row>
     <row r="1764" spans="1:5">
       <c r="A1764">
-        <v>1952</v>
+        <v>2008</v>
       </c>
       <c r="B1764" t="s">
         <v>1740</v>
@@ -45181,7 +45181,7 @@
     </row>
     <row r="1765" spans="1:5">
       <c r="A1765">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1765" t="s">
         <v>1741</v>
@@ -45198,7 +45198,7 @@
     </row>
     <row r="1766" spans="1:5">
       <c r="A1766">
-        <v>1999</v>
+        <v>1953</v>
       </c>
       <c r="B1766" t="s">
         <v>1742</v>
@@ -45215,7 +45215,7 @@
     </row>
     <row r="1767" spans="1:5">
       <c r="A1767">
-        <v>2008</v>
+        <v>1969</v>
       </c>
       <c r="B1767" t="s">
         <v>1743</v>
@@ -45232,7 +45232,7 @@
     </row>
     <row r="1768" spans="1:5">
       <c r="A1768">
-        <v>1969</v>
+        <v>1994</v>
       </c>
       <c r="B1768" t="s">
         <v>1744</v>
@@ -45249,7 +45249,7 @@
     </row>
     <row r="1769" spans="1:5">
       <c r="A1769">
-        <v>2002</v>
+        <v>1953</v>
       </c>
       <c r="B1769" t="s">
         <v>1745</v>
@@ -45266,7 +45266,7 @@
     </row>
     <row r="1770" spans="1:5">
       <c r="A1770">
-        <v>1953</v>
+        <v>1998</v>
       </c>
       <c r="B1770" t="s">
         <v>1746</v>
@@ -45283,7 +45283,7 @@
     </row>
     <row r="1771" spans="1:5">
       <c r="A1771">
-        <v>1952</v>
+        <v>2002</v>
       </c>
       <c r="B1771" t="s">
         <v>1747</v>
@@ -45300,7 +45300,7 @@
     </row>
     <row r="1772" spans="1:5">
       <c r="A1772">
-        <v>1953</v>
+        <v>1999</v>
       </c>
       <c r="B1772" t="s">
         <v>1748</v>
@@ -45317,7 +45317,7 @@
     </row>
     <row r="1773" spans="1:5">
       <c r="A1773">
-        <v>1967</v>
+        <v>1952</v>
       </c>
       <c r="B1773" t="s">
         <v>1749</v>
@@ -45334,7 +45334,7 @@
     </row>
     <row r="1774" spans="1:5">
       <c r="A1774">
-        <v>1994</v>
+        <v>1967</v>
       </c>
       <c r="B1774" t="s">
         <v>1750</v>
@@ -45351,7 +45351,7 @@
     </row>
     <row r="1775" spans="1:5">
       <c r="A1775">
-        <v>1999</v>
+        <v>1952</v>
       </c>
       <c r="B1775" t="s">
         <v>1751</v>
@@ -45368,7 +45368,7 @@
     </row>
     <row r="1776" spans="1:5">
       <c r="A1776">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B1776" t="s">
         <v>1752</v>
@@ -45385,10 +45385,10 @@
     </row>
     <row r="1777" spans="1:5">
       <c r="A1777">
-        <v>1964</v>
+        <v>1998</v>
       </c>
       <c r="B1777" t="s">
-        <v>1753</v>
+        <v>1228</v>
       </c>
       <c r="C1777">
         <v>0</v>
@@ -45402,10 +45402,10 @@
     </row>
     <row r="1778" spans="1:5">
       <c r="A1778">
-        <v>1963</v>
+        <v>2001</v>
       </c>
       <c r="B1778" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C1778">
         <v>0</v>
@@ -45419,10 +45419,10 @@
     </row>
     <row r="1779" spans="1:5">
       <c r="A1779">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="B1779" t="s">
-        <v>1228</v>
+        <v>1754</v>
       </c>
       <c r="C1779">
         <v>0</v>
@@ -45436,7 +45436,7 @@
     </row>
     <row r="1780" spans="1:5">
       <c r="A1780">
-        <v>2001</v>
+        <v>1969</v>
       </c>
       <c r="B1780" t="s">
         <v>1755</v>
@@ -45453,7 +45453,7 @@
     </row>
     <row r="1781" spans="1:5">
       <c r="A1781">
-        <v>1969</v>
+        <v>2000</v>
       </c>
       <c r="B1781" t="s">
         <v>1756</v>
@@ -45470,7 +45470,7 @@
     </row>
     <row r="1782" spans="1:5">
       <c r="A1782">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="B1782" t="s">
         <v>1757</v>
@@ -45487,7 +45487,7 @@
     </row>
     <row r="1783" spans="1:5">
       <c r="A1783">
-        <v>2008</v>
+        <v>1965</v>
       </c>
       <c r="B1783" t="s">
         <v>1758</v>
@@ -45504,7 +45504,7 @@
     </row>
     <row r="1784" spans="1:5">
       <c r="A1784">
-        <v>1995</v>
+        <v>1967</v>
       </c>
       <c r="B1784" t="s">
         <v>1759</v>
@@ -45521,7 +45521,7 @@
     </row>
     <row r="1785" spans="1:5">
       <c r="A1785">
-        <v>1967</v>
+        <v>1952</v>
       </c>
       <c r="B1785" t="s">
         <v>1760</v>
@@ -45538,7 +45538,7 @@
     </row>
     <row r="1786" spans="1:5">
       <c r="A1786">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B1786" t="s">
         <v>1761</v>
@@ -45555,7 +45555,7 @@
     </row>
     <row r="1787" spans="1:5">
       <c r="A1787">
-        <v>1953</v>
+        <v>1962</v>
       </c>
       <c r="B1787" t="s">
         <v>1762</v>
@@ -45572,7 +45572,7 @@
     </row>
     <row r="1788" spans="1:5">
       <c r="A1788">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B1788" t="s">
         <v>1763</v>
@@ -45589,7 +45589,7 @@
     </row>
     <row r="1789" spans="1:5">
       <c r="A1789">
-        <v>1999</v>
+        <v>1966</v>
       </c>
       <c r="B1789" t="s">
         <v>1764</v>
@@ -45606,7 +45606,7 @@
     </row>
     <row r="1790" spans="1:5">
       <c r="A1790">
-        <v>1962</v>
+        <v>1999</v>
       </c>
       <c r="B1790" t="s">
         <v>1765</v>
@@ -45640,7 +45640,7 @@
     </row>
     <row r="1792" spans="1:5">
       <c r="A1792">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="B1792" t="s">
         <v>1767</v>
@@ -45725,7 +45725,7 @@
     </row>
     <row r="1797" spans="1:5">
       <c r="A1797">
-        <v>1964</v>
+        <v>1974</v>
       </c>
       <c r="B1797" t="s">
         <v>1771</v>
@@ -45742,7 +45742,7 @@
     </row>
     <row r="1798" spans="1:5">
       <c r="A1798">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B1798" t="s">
         <v>1772</v>
@@ -45759,7 +45759,7 @@
     </row>
     <row r="1799" spans="1:5">
       <c r="A1799">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B1799" t="s">
         <v>1773</v>
@@ -45810,7 +45810,7 @@
     </row>
     <row r="1802" spans="1:5">
       <c r="A1802">
-        <v>1994</v>
+        <v>1964</v>
       </c>
       <c r="B1802" t="s">
         <v>1776</v>
@@ -45827,7 +45827,7 @@
     </row>
     <row r="1803" spans="1:5">
       <c r="A1803">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B1803" t="s">
         <v>1777</v>
@@ -45861,7 +45861,7 @@
     </row>
     <row r="1805" spans="1:5">
       <c r="A1805">
-        <v>2001</v>
+        <v>1964</v>
       </c>
       <c r="B1805" t="s">
         <v>1779</v>
@@ -45878,7 +45878,7 @@
     </row>
     <row r="1806" spans="1:5">
       <c r="A1806">
-        <v>1964</v>
+        <v>2001</v>
       </c>
       <c r="B1806" t="s">
         <v>1780</v>
@@ -45912,7 +45912,7 @@
     </row>
     <row r="1808" spans="1:5">
       <c r="A1808">
-        <v>1953</v>
+        <v>1998</v>
       </c>
       <c r="B1808" t="s">
         <v>1782</v>
@@ -45929,7 +45929,7 @@
     </row>
     <row r="1809" spans="1:5">
       <c r="A1809">
-        <v>2009</v>
+        <v>1953</v>
       </c>
       <c r="B1809" t="s">
         <v>1783</v>
@@ -45963,7 +45963,7 @@
     </row>
     <row r="1811" spans="1:5">
       <c r="A1811">
-        <v>1967</v>
+        <v>1953</v>
       </c>
       <c r="B1811" t="s">
         <v>1785</v>
@@ -45980,7 +45980,7 @@
     </row>
     <row r="1812" spans="1:5">
       <c r="A1812">
-        <v>1953</v>
+        <v>1967</v>
       </c>
       <c r="B1812" t="s">
         <v>1786</v>
@@ -46014,7 +46014,7 @@
     </row>
     <row r="1814" spans="1:5">
       <c r="A1814">
-        <v>1999</v>
+        <v>1963</v>
       </c>
       <c r="B1814" t="s">
         <v>1788</v>
@@ -46031,7 +46031,7 @@
     </row>
     <row r="1815" spans="1:5">
       <c r="A1815">
-        <v>1963</v>
+        <v>2001</v>
       </c>
       <c r="B1815" t="s">
         <v>1789</v>
@@ -46116,7 +46116,7 @@
     </row>
     <row r="1820" spans="1:5">
       <c r="A1820">
-        <v>1974</v>
+        <v>1999</v>
       </c>
       <c r="B1820" t="s">
         <v>1793</v>
@@ -46150,7 +46150,7 @@
     </row>
     <row r="1822" spans="1:5">
       <c r="A1822">
-        <v>2008</v>
+        <v>1974</v>
       </c>
       <c r="B1822" t="s">
         <v>1795</v>
@@ -46167,7 +46167,7 @@
     </row>
     <row r="1823" spans="1:5">
       <c r="A1823">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B1823" t="s">
         <v>1796</v>
@@ -46184,7 +46184,7 @@
     </row>
     <row r="1824" spans="1:5">
       <c r="A1824">
-        <v>1952</v>
+        <v>2001</v>
       </c>
       <c r="B1824" t="s">
         <v>1797</v>
@@ -46201,7 +46201,7 @@
     </row>
     <row r="1825" spans="1:5">
       <c r="A1825">
-        <v>1999</v>
+        <v>1952</v>
       </c>
       <c r="B1825" t="s">
         <v>1798</v>
@@ -46218,7 +46218,7 @@
     </row>
     <row r="1826" spans="1:5">
       <c r="A1826">
-        <v>1969</v>
+        <v>1999</v>
       </c>
       <c r="B1826" t="s">
         <v>1799</v>
@@ -46235,7 +46235,7 @@
     </row>
     <row r="1827" spans="1:5">
       <c r="A1827">
-        <v>1994</v>
+        <v>1969</v>
       </c>
       <c r="B1827" t="s">
         <v>1800</v>
@@ -46252,7 +46252,7 @@
     </row>
     <row r="1828" spans="1:5">
       <c r="A1828">
-        <v>1953</v>
+        <v>1994</v>
       </c>
       <c r="B1828" t="s">
         <v>1801</v>
@@ -46269,7 +46269,7 @@
     </row>
     <row r="1829" spans="1:5">
       <c r="A1829">
-        <v>1998</v>
+        <v>1953</v>
       </c>
       <c r="B1829" t="s">
         <v>1802</v>
@@ -46286,7 +46286,7 @@
     </row>
     <row r="1830" spans="1:5">
       <c r="A1830">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="B1830" t="s">
         <v>1803</v>
@@ -46303,7 +46303,7 @@
     </row>
     <row r="1831" spans="1:5">
       <c r="A1831">
-        <v>1974</v>
+        <v>2009</v>
       </c>
       <c r="B1831" t="s">
         <v>1804</v>
@@ -46507,7 +46507,7 @@
     </row>
     <row r="1843" spans="1:5">
       <c r="A1843">
-        <v>1999</v>
+        <v>1956</v>
       </c>
       <c r="B1843" t="s">
         <v>1816</v>
@@ -46524,7 +46524,7 @@
     </row>
     <row r="1844" spans="1:5">
       <c r="A1844">
-        <v>1956</v>
+        <v>1996</v>
       </c>
       <c r="B1844" t="s">
         <v>1817</v>
@@ -46541,7 +46541,7 @@
     </row>
     <row r="1845" spans="1:5">
       <c r="A1845">
-        <v>1996</v>
+        <v>1956</v>
       </c>
       <c r="B1845" t="s">
         <v>1818</v>
@@ -46609,7 +46609,7 @@
     </row>
     <row r="1849" spans="1:5">
       <c r="A1849">
-        <v>1966</v>
+        <v>1998</v>
       </c>
       <c r="B1849" t="s">
         <v>1822</v>
@@ -46626,7 +46626,7 @@
     </row>
     <row r="1850" spans="1:5">
       <c r="A1850">
-        <v>1998</v>
+        <v>1966</v>
       </c>
       <c r="B1850" t="s">
         <v>1823</v>
@@ -46677,7 +46677,7 @@
     </row>
     <row r="1853" spans="1:5">
       <c r="A1853">
-        <v>1956</v>
+        <v>1972</v>
       </c>
       <c r="B1853" t="s">
         <v>1826</v>
@@ -46694,7 +46694,7 @@
     </row>
     <row r="1854" spans="1:5">
       <c r="A1854">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="B1854" t="s">
         <v>1827</v>
@@ -46711,7 +46711,7 @@
     </row>
     <row r="1855" spans="1:5">
       <c r="A1855">
-        <v>1967</v>
+        <v>2005</v>
       </c>
       <c r="B1855" t="s">
         <v>1828</v>
@@ -46728,7 +46728,7 @@
     </row>
     <row r="1856" spans="1:5">
       <c r="A1856">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B1856" t="s">
         <v>1829</v>
@@ -46745,7 +46745,7 @@
     </row>
     <row r="1857" spans="1:5">
       <c r="A1857">
-        <v>2006</v>
+        <v>1957</v>
       </c>
       <c r="B1857" t="s">
         <v>1830</v>
@@ -46796,7 +46796,7 @@
     </row>
     <row r="1860" spans="1:5">
       <c r="A1860">
-        <v>1957</v>
+        <v>1996</v>
       </c>
       <c r="B1860" t="s">
         <v>1833</v>
@@ -46813,7 +46813,7 @@
     </row>
     <row r="1861" spans="1:5">
       <c r="A1861">
-        <v>1996</v>
+        <v>1957</v>
       </c>
       <c r="B1861" t="s">
         <v>1834</v>
@@ -46881,10 +46881,10 @@
     </row>
     <row r="1865" spans="1:5">
       <c r="A1865">
-        <v>1957</v>
+        <v>1996</v>
       </c>
       <c r="B1865" t="s">
-        <v>1838</v>
+        <v>850</v>
       </c>
       <c r="C1865">
         <v>0</v>
@@ -46898,10 +46898,10 @@
     </row>
     <row r="1866" spans="1:5">
       <c r="A1866">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="B1866" t="s">
-        <v>850</v>
+        <v>1838</v>
       </c>
       <c r="C1866">
         <v>0</v>
@@ -46915,7 +46915,7 @@
     </row>
     <row r="1867" spans="1:5">
       <c r="A1867">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="B1867" t="s">
         <v>1839</v>
@@ -46932,7 +46932,7 @@
     </row>
     <row r="1868" spans="1:5">
       <c r="A1868">
-        <v>1996</v>
+        <v>1972</v>
       </c>
       <c r="B1868" t="s">
         <v>1840</v>
@@ -46949,7 +46949,7 @@
     </row>
     <row r="1869" spans="1:5">
       <c r="A1869">
-        <v>1972</v>
+        <v>2006</v>
       </c>
       <c r="B1869" t="s">
         <v>1841</v>
@@ -46983,7 +46983,7 @@
     </row>
     <row r="1871" spans="1:5">
       <c r="A1871">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B1871" t="s">
         <v>1843</v>
@@ -47000,7 +47000,7 @@
     </row>
     <row r="1872" spans="1:5">
       <c r="A1872">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="B1872" t="s">
         <v>1844</v>
@@ -48003,7 +48003,7 @@
     </row>
     <row r="1931" spans="1:5">
       <c r="A1931">
-        <v>2003</v>
+        <v>1966</v>
       </c>
       <c r="B1931" t="s">
         <v>1902</v>
@@ -48105,7 +48105,7 @@
     </row>
     <row r="1937" spans="1:5">
       <c r="A1937">
-        <v>1966</v>
+        <v>2003</v>
       </c>
       <c r="B1937" t="s">
         <v>1906</v>
@@ -50264,7 +50264,7 @@
     </row>
     <row r="2064" spans="1:5">
       <c r="A2064">
-        <v>1932</v>
+        <v>1987</v>
       </c>
       <c r="B2064" t="s">
         <v>2028</v>
@@ -50332,7 +50332,7 @@
     </row>
     <row r="2068" spans="1:5">
       <c r="A2068">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B2068" t="s">
         <v>2032</v>
@@ -50349,7 +50349,7 @@
     </row>
     <row r="2069" spans="1:5">
       <c r="A2069">
-        <v>1987</v>
+        <v>1931</v>
       </c>
       <c r="B2069" t="s">
         <v>2033</v>
@@ -50369,7 +50369,7 @@
         <v>1986</v>
       </c>
       <c r="B2070" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C2070">
         <v>0</v>
@@ -51508,7 +51508,7 @@
         <v>1977</v>
       </c>
       <c r="B2137" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="C2137">
         <v>0</v>
@@ -54208,7 +54208,7 @@
     </row>
     <row r="2296" spans="1:5">
       <c r="A2296">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="B2296" t="s">
         <v>2253</v>
@@ -54225,7 +54225,7 @@
     </row>
     <row r="2297" spans="1:5">
       <c r="A2297">
-        <v>1987</v>
+        <v>1994</v>
       </c>
       <c r="B2297" t="s">
         <v>2254</v>
@@ -59039,7 +59039,7 @@
         <v>2016</v>
       </c>
       <c r="B2580" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C2580">
         <v>0</v>
@@ -64462,7 +64462,7 @@
         <v>2019</v>
       </c>
       <c r="B2899" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C2899">
         <v>0</v>
@@ -75291,7 +75291,7 @@
         <v>1945</v>
       </c>
       <c r="B3536" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C3536">
         <v>0</v>
@@ -77297,7 +77297,7 @@
         <v>1956</v>
       </c>
       <c r="B3654" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C3654">
         <v>0</v>
@@ -80459,7 +80459,7 @@
         <v>1939</v>
       </c>
       <c r="B3840" t="s">
-        <v>2028</v>
+        <v>2032</v>
       </c>
       <c r="C3840">
         <v>0</v>
@@ -91798,7 +91798,7 @@
         <v>1985</v>
       </c>
       <c r="B4507" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4507">
         <v>0</v>
@@ -94178,7 +94178,7 @@
         <v>1961</v>
       </c>
       <c r="B4647" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C4647">
         <v>0</v>
@@ -96388,7 +96388,7 @@
         <v>1957</v>
       </c>
       <c r="B4777" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C4777">
         <v>0</v>
